--- a/Django 01.03.25.xlsx
+++ b/Django 01.03.25.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9804" tabRatio="858"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9804" tabRatio="858" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4998" uniqueCount="3567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4999" uniqueCount="3568">
   <si>
     <t>HTTP</t>
   </si>
@@ -40547,6 +40547,9 @@
   </si>
   <si>
     <t>7. Създаваме нов пайтън файл choices.py</t>
+  </si>
+  <si>
+    <t>copy the requirements.txt from another file</t>
   </si>
 </sst>
 </file>
@@ -42073,7 +42076,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -44575,10 +44580,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N888"/>
+  <dimension ref="A1:N889"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44594,7 +44599,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
+      <c r="A4" s="41">
+        <v>1</v>
+      </c>
       <c r="B4" t="s">
         <v>2846</v>
       </c>
@@ -44606,6 +44613,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
       <c r="B6" t="s">
         <v>2602</v>
       </c>
@@ -44614,6 +44624,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
       <c r="B7" t="s">
         <v>2617</v>
       </c>
@@ -44622,6 +44635,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
       <c r="B8" t="s">
         <v>378</v>
       </c>
@@ -44630,6 +44646,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5</v>
+      </c>
       <c r="B9" t="s">
         <v>379</v>
       </c>
@@ -44646,849 +44665,852 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>6</v>
+      </c>
       <c r="B11" t="s">
+        <v>3567</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
         <v>380</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" t="s">
         <v>2571</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>2568</v>
-      </c>
-      <c r="G12" t="s">
-        <v>2572</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>924</v>
+        <v>2568</v>
       </c>
       <c r="G13" t="s">
-        <v>2619</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
+        <v>924</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
         <v>397</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" t="s">
         <v>2574</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>2621</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="39"/>
-    </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I19" s="18"/>
+      <c r="A19" s="39"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="I20" s="18"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>2624</v>
       </c>
-      <c r="I20" s="18"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
         <v>2547</v>
-      </c>
-      <c r="I21" s="18"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="18" t="s">
-        <v>2548</v>
       </c>
       <c r="I22" s="18"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="18" t="s">
+        <v>2548</v>
+      </c>
+      <c r="I23" s="18"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="18" t="s">
         <v>2549</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G24" s="18"/>
-    </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>2622</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>2550</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
         <v>2551</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
         <v>2625</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>2847</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>3509</v>
-      </c>
-      <c r="C32" s="98"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
+        <v>3509</v>
+      </c>
+      <c r="C33" s="98"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
         <v>3510</v>
       </c>
-      <c r="C33" s="98"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="18" t="s">
+      <c r="C34" s="98"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="18" t="s">
         <v>3513</v>
-      </c>
-      <c r="C34" s="98"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="11" t="s">
-        <v>3511</v>
       </c>
       <c r="C35" s="98"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B36" s="11" t="s">
+        <v>3511</v>
+      </c>
+      <c r="C36" s="98"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="11" t="s">
         <v>3512</v>
       </c>
-      <c r="C36" s="98"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+      <c r="C37" s="98"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
         <v>448</v>
       </c>
-      <c r="C37" s="98"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="18"/>
       <c r="C38" s="98"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="18"/>
+      <c r="C39" s="98"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
         <v>2552</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
         <v>2553</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>2684</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
         <v>2685</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>2688</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>2750</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>2759</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>2689</v>
-      </c>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
+        <v>2688</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>2750</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>2759</v>
+      </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>2686</v>
-      </c>
+        <v>2689</v>
+      </c>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>2690</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>2687</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>2691</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>775</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
         <v>2697</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>2698</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>635</v>
-      </c>
-      <c r="H61" t="s">
-        <v>2702</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>2696</v>
+        <v>635</v>
       </c>
       <c r="H62" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
+        <v>2696</v>
+      </c>
+      <c r="H63" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
         <v>2623</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="3"/>
-      <c r="B67" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="3"/>
+      <c r="B68" t="s">
         <v>2668</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
-        <v>1334</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
         <v>1335</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
         <v>3514</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
-        <v>2656</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
         <v>2657</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="43" t="s">
-        <v>2658</v>
-      </c>
-      <c r="C79" s="43"/>
-      <c r="H79" t="s">
-        <v>2682</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B80" s="43" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="C80" s="43"/>
+      <c r="H80" t="s">
+        <v>2682</v>
+      </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B81" s="43" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C81" s="43"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B82" s="43" t="s">
         <v>2660</v>
       </c>
-      <c r="C81" s="43"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B82" s="43"/>
       <c r="C82" s="43"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B83" s="43" t="s">
-        <v>2661</v>
-      </c>
+      <c r="B83" s="43"/>
       <c r="C83" s="43"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B84" s="43" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="C84" s="43"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B85" s="43" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="C85" s="43"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B86" s="43" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="C86" s="43"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B87" s="43" t="s">
-        <v>1340</v>
+        <v>2664</v>
       </c>
       <c r="C87" s="43"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B88" s="43" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C88" s="43"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B89" s="43" t="s">
         <v>2665</v>
       </c>
-      <c r="C88" s="43"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H89" s="5" t="s">
+      <c r="C89" s="43"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H90" s="5" t="s">
         <v>2681</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B90" t="s">
-        <v>2666</v>
-      </c>
-      <c r="H90" t="s">
-        <v>2666</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>3198</v>
+        <v>2666</v>
       </c>
       <c r="H91" t="s">
-        <v>2683</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
+        <v>3198</v>
+      </c>
+      <c r="H92" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
         <v>2667</v>
       </c>
-      <c r="H92" t="s">
+      <c r="H93" t="s">
         <v>2667</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="5" t="s">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="5" t="s">
         <v>2699</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B96" t="s">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
         <v>2700</v>
       </c>
-      <c r="H96" t="s">
+      <c r="H97" t="s">
         <v>2704</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H97" t="s">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H98" t="s">
         <v>2705</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B98" t="s">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
         <v>409</v>
       </c>
-      <c r="H98" t="s">
+      <c r="H99" t="s">
         <v>2707</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B99" t="s">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
         <v>411</v>
       </c>
-      <c r="H99" t="s">
+      <c r="H100" t="s">
         <v>2708</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B100" t="s">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B101" t="s">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
         <v>2701</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B102" t="s">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B103" t="s">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B104" t="s">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B105" t="s">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B106" t="s">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B107" t="s">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B109" t="s">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B110" t="s">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="5" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="5" t="s">
         <v>3566</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B114" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
         <v>2722</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B116" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B119" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
         <v>2723</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B120" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
         <v>2724</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B121" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
         <v>2725</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B122" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
         <v>2726</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B123" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
         <v>2727</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B124" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
         <v>2728</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B125" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
         <v>2729</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B126" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
         <v>2730</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B127" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
         <v>2731</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A130" s="3" t="s">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
         <v>2732</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B131" t="s">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
         <v>2733</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B134" t="s">
-        <v>2736</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B137" t="s">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
         <v>2737</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B140" t="s">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
         <v>2758</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G141" s="4" t="s">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G142" s="4" t="s">
         <v>2750</v>
       </c>
-      <c r="H141" s="4" t="s">
+      <c r="H142" s="4" t="s">
         <v>2751</v>
       </c>
-      <c r="I141" s="4" t="s">
+      <c r="I142" s="4" t="s">
         <v>2752</v>
       </c>
-      <c r="J141" s="4" t="s">
+      <c r="J142" s="4" t="s">
         <v>2753</v>
       </c>
-      <c r="K141" s="4" t="s">
+      <c r="K142" s="4" t="s">
         <v>2754</v>
       </c>
-      <c r="L141" s="4" t="s">
+      <c r="L142" s="4" t="s">
         <v>2755</v>
       </c>
-      <c r="M141" s="4" t="s">
+      <c r="M142" s="4" t="s">
         <v>2756</v>
       </c>
-      <c r="N141" s="99" t="s">
+      <c r="N142" s="99" t="s">
         <v>2757</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B142" t="s">
-        <v>2748</v>
-      </c>
-      <c r="G142" s="4"/>
-      <c r="H142" s="4"/>
-      <c r="I142" s="4"/>
-      <c r="J142" s="4"/>
-      <c r="K142" s="4"/>
-      <c r="L142" s="4"/>
-      <c r="M142" s="4"/>
-      <c r="N142" s="4"/>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
-        <v>1309</v>
-      </c>
+        <v>2748</v>
+      </c>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="4"/>
+      <c r="J143" s="4"/>
+      <c r="K143" s="4"/>
+      <c r="L143" s="4"/>
+      <c r="M143" s="4"/>
+      <c r="N143" s="4"/>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
-        <v>621</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
         <v>433</v>
-      </c>
-    </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B147" t="s">
-        <v>2747</v>
       </c>
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
-        <v>1309</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
         <v>433</v>
-      </c>
-    </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B151" t="s">
-        <v>2746</v>
       </c>
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
-        <v>1309</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
-        <v>2848</v>
-      </c>
-      <c r="G153" t="s">
-        <v>2749</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
+        <v>2848</v>
+      </c>
+      <c r="G154" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B155" t="s">
         <v>433</v>
-      </c>
-    </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B156" t="s">
-        <v>2745</v>
       </c>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
-        <v>635</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
-        <v>2696</v>
+        <v>635</v>
       </c>
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B160" t="s">
         <v>433</v>
-      </c>
-    </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B161" t="s">
-        <v>2744</v>
       </c>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
-        <v>2743</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
-        <v>2690</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
-        <v>2738</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
-        <v>775</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B167" t="s">
         <v>433</v>
-      </c>
-    </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B168" t="s">
-        <v>2741</v>
       </c>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
-        <v>2849</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="170" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
-        <v>2120</v>
-      </c>
-      <c r="G170" t="s">
-        <v>2734</v>
-      </c>
-      <c r="H170" t="s">
-        <v>2742</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
-        <v>2739</v>
+        <v>2120</v>
       </c>
       <c r="G171" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="H171" t="s">
-        <v>2740</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
+        <v>2739</v>
+      </c>
+      <c r="G172" t="s">
+        <v>2735</v>
+      </c>
+      <c r="H172" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B173" t="s">
         <v>433</v>
-      </c>
-    </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B175" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B177" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A179" s="34" t="s">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180" s="34" t="s">
         <v>2760</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A180" s="34"/>
-    </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A181" s="34" t="s">
+      <c r="A181" s="34"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182" s="34" t="s">
         <v>2763</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B183" t="s">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B184" t="s">
         <v>2761</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C185" t="s">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C186" t="s">
         <v>871</v>
       </c>
-      <c r="G185" t="s">
+      <c r="G186" t="s">
         <v>2762</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C187" t="s">
-        <v>872</v>
-      </c>
-      <c r="H187" t="s">
-        <v>2764</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C188" t="s">
-        <v>2765</v>
+        <v>872</v>
+      </c>
+      <c r="H188" t="s">
+        <v>2764</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C189" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C190" t="s">
         <v>874</v>
-      </c>
-    </row>
-    <row r="193" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B193" t="s">
-        <v>2783</v>
       </c>
     </row>
     <row r="194" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B194" t="s">
-        <v>2784</v>
-      </c>
-      <c r="J194" t="s">
-        <v>2804</v>
-      </c>
-      <c r="L194" t="s">
-        <v>2811</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="195" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="J195" t="s">
-        <v>2795</v>
+        <v>2804</v>
+      </c>
+      <c r="L195" t="s">
+        <v>2811</v>
       </c>
     </row>
     <row r="196" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
-        <v>2809</v>
+        <v>2785</v>
       </c>
       <c r="J196" t="s">
-        <v>2805</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="197" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
-        <v>2786</v>
+        <v>2809</v>
       </c>
       <c r="J197" t="s">
-        <v>2796</v>
-      </c>
-      <c r="L197" t="s">
-        <v>2807</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="198" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="J198" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="L198" t="s">
-        <v>2810</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="199" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="J199" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="L199" t="s">
         <v>2810</v>
@@ -45496,10 +45518,10 @@
     </row>
     <row r="200" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="J200" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="L200" t="s">
         <v>2810</v>
@@ -45507,40 +45529,40 @@
     </row>
     <row r="201" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B201" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="J201" t="s">
-        <v>2806</v>
+        <v>2799</v>
+      </c>
+      <c r="L201" t="s">
+        <v>2810</v>
       </c>
     </row>
     <row r="202" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B202" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="J202" t="s">
-        <v>2800</v>
-      </c>
-      <c r="L202" t="s">
-        <v>2808</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="203" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B203" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="J203" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="L203" t="s">
-        <v>2810</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="204" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B204" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="J204" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="L204" t="s">
         <v>2810</v>
@@ -45548,10 +45570,10 @@
     </row>
     <row r="205" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B205" t="s">
-        <v>766</v>
+        <v>2793</v>
       </c>
       <c r="J205" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="L205" t="s">
         <v>2810</v>
@@ -45559,40 +45581,43 @@
     </row>
     <row r="206" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B206" t="s">
-        <v>2794</v>
+        <v>766</v>
+      </c>
+      <c r="J206" t="s">
+        <v>2803</v>
+      </c>
+      <c r="L206" t="s">
+        <v>2810</v>
       </c>
     </row>
     <row r="207" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B207" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="208" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B208" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A210" s="5" t="s">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" s="5" t="s">
         <v>2781</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B211" s="41" t="s">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B212" s="41" t="s">
         <v>2780</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C212" s="100" t="s">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C213" s="100" t="s">
         <v>2767</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C213" t="s">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C214" t="s">
         <v>2782</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D214" s="82" t="s">
-        <v>3298</v>
-      </c>
-      <c r="F214" t="s">
-        <v>1434</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
@@ -45600,405 +45625,399 @@
         <v>3298</v>
       </c>
       <c r="F215" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D216" s="82" t="s">
+        <v>3298</v>
+      </c>
+      <c r="F216" t="s">
         <v>2776</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C216" t="s">
-        <v>2766</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C217" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C218" t="s">
         <v>2768</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B220" s="5" t="s">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B221" s="5" t="s">
         <v>2769</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C221" t="s">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C222" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B223" s="5" t="s">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B224" s="5" t="s">
         <v>2770</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C224" t="s">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C225" t="s">
         <v>2771</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B226" s="5" t="s">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B227" s="5" t="s">
         <v>2770</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C227" t="s">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C228" t="s">
         <v>2772</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A230" s="5" t="s">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A231" s="5" t="s">
         <v>2773</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B231" t="s">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B232" t="s">
         <v>2779</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B233" s="5" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B234" s="5" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B235" s="5" t="s">
         <v>1434</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B235" t="s">
-        <v>2774</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B236" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B237" t="s">
         <v>2777</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B237" s="82" t="s">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B238" s="82" t="s">
         <v>2778</v>
       </c>
-      <c r="F237" t="s">
+      <c r="F238" t="s">
         <v>3189</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B238" t="s">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B239" t="s">
         <v>2775</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B239" s="5" t="s">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B240" s="5" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A241" s="54" t="s">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="54" t="s">
         <v>2820</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A242" s="54"/>
-      <c r="B242" t="s">
-        <v>2822</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="54"/>
+      <c r="B243" t="s">
+        <v>2822</v>
+      </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B244" t="s">
+      <c r="A244" s="54"/>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B245" t="s">
         <v>2821</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C245" t="s">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C246" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C247" t="s">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C248" t="s">
         <v>2823</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C250" t="s">
-        <v>2824</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C251" t="s">
-        <v>1248</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C252" t="s">
-        <v>2825</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C253" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C254" t="s">
         <v>2826</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C256" t="s">
-        <v>2827</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C257" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C258" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A259" s="5" t="s">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A260" s="5" t="s">
         <v>3170</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B260">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B261">
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B261" t="s">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B262" t="s">
         <v>3113</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B263" t="s">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B264" t="s">
         <v>2823</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B265" t="s">
-        <v>3114</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B266" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B267" t="s">
         <v>3115</v>
       </c>
-      <c r="F266" t="s">
+      <c r="F267" t="s">
         <v>3116</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A269" s="5" t="s">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A270" s="5" t="s">
         <v>3171</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B270" t="s">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B271" t="s">
         <v>3172</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B272" t="s">
+    <row r="273" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B273" t="s">
         <v>3173</v>
-      </c>
-    </row>
-    <row r="274" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G274" t="s">
-        <v>3118</v>
       </c>
     </row>
     <row r="275" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G275" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="276" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G276" t="s">
         <v>3515</v>
-      </c>
-    </row>
-    <row r="276" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B276" t="s">
-        <v>3133</v>
-      </c>
-      <c r="G276" t="s">
-        <v>3119</v>
       </c>
     </row>
     <row r="277" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B277" t="s">
-        <v>3124</v>
+        <v>3133</v>
       </c>
       <c r="G277" t="s">
-        <v>3125</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="278" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B278" t="s">
-        <v>3126</v>
+        <v>3124</v>
+      </c>
+      <c r="G278" t="s">
+        <v>3125</v>
       </c>
     </row>
     <row r="279" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B279" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="280" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B280" t="s">
         <v>3127</v>
-      </c>
-    </row>
-    <row r="281" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B281" t="s">
-        <v>3128</v>
       </c>
     </row>
     <row r="282" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B282" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="283" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B283" t="s">
         <v>3129</v>
-      </c>
-    </row>
-    <row r="284" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B284" t="s">
-        <v>3130</v>
       </c>
     </row>
     <row r="285" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B285" t="s">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="286" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B286" t="s">
         <v>3131</v>
       </c>
     </row>
-    <row r="287" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B287" t="s">
+    <row r="288" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B288" t="s">
         <v>3132</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A289" s="5" t="s">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" s="5" t="s">
         <v>3174</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B291" t="s">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B292" t="s">
         <v>3175</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B293" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B294" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B295" t="s">
         <v>3176</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B296" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B297" t="s">
-        <v>3177</v>
+        <v>447</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B298" t="s">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B299" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A300" s="5" t="s">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" s="5" t="s">
         <v>3181</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B301" t="s">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B302" t="s">
         <v>3179</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B303" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B304" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B305" t="s">
         <v>454</v>
-      </c>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B306" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B307" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B308" t="s">
-        <v>3180</v>
+        <v>455</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B309" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B310" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B311" t="s">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B312" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C312" s="5" t="s">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C313" s="5" t="s">
         <v>3182</v>
       </c>
-      <c r="K312" s="39">
+      <c r="K313" s="39">
         <v>7.3611111111111113E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K313" t="s">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K314" t="s">
         <v>3195</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A314" s="5" t="s">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A315" s="5" t="s">
         <v>3190</v>
-      </c>
-    </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B315" t="s">
-        <v>3183</v>
-      </c>
-      <c r="H315" s="14" t="s">
-        <v>3197</v>
-      </c>
-      <c r="K315" t="s">
-        <v>3196</v>
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B316" t="s">
+        <v>3183</v>
+      </c>
+      <c r="H316" s="14" t="s">
+        <v>3197</v>
+      </c>
+      <c r="K316" t="s">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B317" t="s">
         <v>3187</v>
       </c>
-      <c r="K316" t="s">
+      <c r="K317" t="s">
         <v>3191</v>
-      </c>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C317" s="82" t="s">
-        <v>3184</v>
-      </c>
-      <c r="F317" t="s">
-        <v>3189</v>
-      </c>
-      <c r="K317" t="s">
-        <v>3192</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C318" s="82" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="F318" t="s">
         <v>3189</v>
       </c>
-      <c r="H318" s="5" t="s">
-        <v>1114</v>
-      </c>
-      <c r="K318" s="5" t="s">
-        <v>1427</v>
+      <c r="K318" t="s">
+        <v>3192</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.3">
@@ -46009,961 +46028,967 @@
         <v>3189</v>
       </c>
       <c r="H319" s="5" t="s">
-        <v>3188</v>
+        <v>1114</v>
       </c>
       <c r="K319" s="5" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C320" s="82" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="F320" t="s">
         <v>3189</v>
       </c>
-      <c r="K320" t="s">
+      <c r="H320" s="5" t="s">
+        <v>3188</v>
+      </c>
+      <c r="K320" s="5" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C321" s="82" t="s">
+        <v>3186</v>
+      </c>
+      <c r="F321" t="s">
+        <v>3189</v>
+      </c>
+      <c r="K321" t="s">
         <v>3193</v>
-      </c>
-    </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K321" t="s">
-        <v>3194</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K322" t="s">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K323" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A323" s="5" t="s">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A324" s="5" t="s">
         <v>3199</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B325" t="s">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B326" t="s">
         <v>3200</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G326" t="s">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G327" t="s">
         <v>1433</v>
-      </c>
-      <c r="M326" s="82"/>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C327" s="82" t="s">
-        <v>3201</v>
-      </c>
-      <c r="G327" t="s">
-        <v>1434</v>
       </c>
       <c r="M327" s="82"/>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C328" s="82" t="s">
-        <v>3205</v>
+        <v>3201</v>
+      </c>
+      <c r="G328" t="s">
+        <v>1434</v>
       </c>
       <c r="M328" s="82"/>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C329" s="82" t="s">
+        <v>3205</v>
+      </c>
+      <c r="M329" s="82"/>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C330" s="82" t="s">
         <v>3202</v>
       </c>
-      <c r="G329" t="s">
+      <c r="G330" t="s">
         <v>2774</v>
       </c>
-      <c r="M329" s="82"/>
-    </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C330" s="82"/>
-      <c r="G330" t="s">
+      <c r="M330" s="82"/>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C331" s="82"/>
+      <c r="G331" t="s">
         <v>3206</v>
       </c>
-      <c r="M330" s="82"/>
-    </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C331" s="82" t="s">
-        <v>3203</v>
-      </c>
-      <c r="G331" t="s">
-        <v>3207</v>
-      </c>
-      <c r="M331" t="s">
-        <v>3244</v>
-      </c>
+      <c r="M331" s="82"/>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C332" s="82" t="s">
-        <v>3205</v>
-      </c>
-      <c r="G332" s="15" t="s">
-        <v>3208</v>
+        <v>3203</v>
+      </c>
+      <c r="G332" t="s">
+        <v>3207</v>
+      </c>
+      <c r="M332" t="s">
+        <v>3244</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C333" s="82" t="s">
+        <v>3205</v>
+      </c>
+      <c r="G333" s="15" t="s">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C334" s="82" t="s">
         <v>3204</v>
       </c>
-      <c r="G333" s="5" t="s">
+      <c r="G334" s="5" t="s">
         <v>3209</v>
       </c>
-      <c r="K333" t="s">
+      <c r="K334" t="s">
         <v>3219</v>
       </c>
-      <c r="M333" s="11" t="s">
+      <c r="M334" s="11" t="s">
         <v>3245</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G334" s="5" t="s">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G335" s="5" t="s">
         <v>3210</v>
       </c>
-      <c r="M334" t="s">
+      <c r="M335" t="s">
         <v>3212</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C335" s="5"/>
-      <c r="G335" s="11" t="s">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C336" s="5"/>
+      <c r="G336" s="11" t="s">
         <v>3211</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C336" s="11"/>
-      <c r="G336" s="5" t="s">
+    <row r="337" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C337" s="11"/>
+      <c r="G337" s="5" t="s">
         <v>755</v>
       </c>
-      <c r="M336" s="15" t="s">
+      <c r="M337" s="15" t="s">
         <v>3246</v>
-      </c>
-    </row>
-    <row r="337" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="G337" s="5" t="s">
-        <v>3212</v>
-      </c>
-      <c r="M337" t="s">
-        <v>3210</v>
       </c>
     </row>
     <row r="338" spans="3:13" x14ac:dyDescent="0.3">
       <c r="G338" s="5" t="s">
+        <v>3212</v>
+      </c>
+      <c r="M338" t="s">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="339" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="G339" s="5" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="339" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C339" s="15"/>
-    </row>
     <row r="340" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="G340" t="s">
+      <c r="C340" s="15"/>
+    </row>
+    <row r="341" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="G341" t="s">
         <v>3213</v>
       </c>
-      <c r="M340" t="s">
+      <c r="M341" t="s">
         <v>3247</v>
       </c>
     </row>
-    <row r="341" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="G341" s="5" t="s">
+    <row r="342" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="G342" s="5" t="s">
         <v>3214</v>
-      </c>
-    </row>
-    <row r="342" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="G342" t="s">
-        <v>3220</v>
-      </c>
-      <c r="M342" t="s">
-        <v>3220</v>
       </c>
     </row>
     <row r="343" spans="3:13" x14ac:dyDescent="0.3">
       <c r="G343" t="s">
-        <v>3225</v>
+        <v>3220</v>
       </c>
       <c r="M343" t="s">
-        <v>3248</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="344" spans="3:13" x14ac:dyDescent="0.3">
       <c r="G344" t="s">
-        <v>3221</v>
+        <v>3225</v>
       </c>
       <c r="M344" t="s">
-        <v>3249</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="345" spans="3:13" x14ac:dyDescent="0.3">
       <c r="G345" t="s">
-        <v>3222</v>
+        <v>3221</v>
       </c>
       <c r="M345" t="s">
-        <v>3215</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="346" spans="3:13" x14ac:dyDescent="0.3">
       <c r="G346" t="s">
-        <v>3226</v>
+        <v>3222</v>
       </c>
       <c r="M346" t="s">
-        <v>3250</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="347" spans="3:13" x14ac:dyDescent="0.3">
       <c r="G347" t="s">
-        <v>3227</v>
+        <v>3226</v>
       </c>
       <c r="M347" t="s">
-        <v>3251</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="348" spans="3:13" x14ac:dyDescent="0.3">
       <c r="G348" t="s">
-        <v>3228</v>
+        <v>3227</v>
       </c>
       <c r="M348" t="s">
-        <v>3252</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="349" spans="3:13" x14ac:dyDescent="0.3">
       <c r="G349" t="s">
-        <v>3229</v>
+        <v>3228</v>
       </c>
       <c r="M349" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="350" spans="3:13" x14ac:dyDescent="0.3">
       <c r="G350" t="s">
-        <v>1417</v>
+        <v>3229</v>
       </c>
       <c r="M350" t="s">
-        <v>1784</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="351" spans="3:13" x14ac:dyDescent="0.3">
       <c r="G351" t="s">
-        <v>3223</v>
+        <v>1417</v>
       </c>
       <c r="M351" t="s">
-        <v>3216</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="352" spans="3:13" x14ac:dyDescent="0.3">
       <c r="G352" t="s">
-        <v>3224</v>
+        <v>3223</v>
       </c>
       <c r="M352" t="s">
-        <v>3254</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G353" t="s">
-        <v>1417</v>
+        <v>3224</v>
       </c>
       <c r="M353" t="s">
-        <v>1784</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G354" t="s">
+        <v>1417</v>
+      </c>
+      <c r="M354" t="s">
         <v>1784</v>
-      </c>
-      <c r="M354" t="s">
-        <v>3255</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G355" t="s">
+        <v>1784</v>
+      </c>
+      <c r="M355" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G356" t="s">
         <v>1421</v>
       </c>
-      <c r="M355" t="s">
+      <c r="M356" t="s">
         <v>1421</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G356" s="5" t="s">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G357" s="5" t="s">
         <v>3217</v>
-      </c>
-    </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G357" t="s">
-        <v>3218</v>
-      </c>
-      <c r="M357" t="s">
-        <v>3256</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G358" t="s">
+        <v>3218</v>
+      </c>
+      <c r="M358" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G359" t="s">
         <v>2775</v>
       </c>
-      <c r="M358" t="s">
+      <c r="M359" t="s">
         <v>3257</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G359" s="5" t="s">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G360" s="5" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C361" t="s">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C362" t="s">
         <v>3263</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A363" s="5" t="s">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A364" s="5" t="s">
         <v>3267</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B364" t="s">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B365" t="s">
         <v>3269</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B366" t="s">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B367" t="s">
         <v>3268</v>
-      </c>
-    </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C368" t="s">
-        <v>3270</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C369" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C370" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C371" t="s">
-        <v>3273</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C372" t="s">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C373" t="s">
         <v>3274</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C374" t="s">
-        <v>2059</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C375" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C376" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C377" t="s">
         <v>3275</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A379" s="5" t="s">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" s="5" t="s">
         <v>3276</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B381" t="s">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B382" t="s">
         <v>3265</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B383" t="s">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B384" t="s">
         <v>3264</v>
       </c>
     </row>
-    <row r="385" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C385" t="s">
+    <row r="386" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C386" t="s">
         <v>1132</v>
-      </c>
-    </row>
-    <row r="387" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C387" t="s">
-        <v>3122</v>
       </c>
     </row>
     <row r="388" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C388" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="389" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C389" t="s">
         <v>3278</v>
-      </c>
-    </row>
-    <row r="391" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C391" t="s">
-        <v>3279</v>
       </c>
     </row>
     <row r="392" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C392" t="s">
-        <v>1248</v>
-      </c>
-      <c r="M392" s="82"/>
+        <v>3279</v>
+      </c>
     </row>
     <row r="393" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C393" t="s">
-        <v>3277</v>
+        <v>1248</v>
       </c>
       <c r="M393" s="82"/>
     </row>
     <row r="394" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C394" t="s">
+        <v>3277</v>
+      </c>
+      <c r="M394" s="82"/>
+    </row>
+    <row r="395" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C395" t="s">
         <v>3280</v>
       </c>
-      <c r="M394" s="82"/>
-    </row>
-    <row r="395" spans="3:13" x14ac:dyDescent="0.3">
       <c r="M395" s="82"/>
     </row>
     <row r="396" spans="3:13" x14ac:dyDescent="0.3">
       <c r="M396" s="82"/>
     </row>
     <row r="397" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C397" t="s">
-        <v>3281</v>
-      </c>
       <c r="M397" s="82"/>
     </row>
     <row r="398" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C398" t="s">
+        <v>3281</v>
+      </c>
+      <c r="M398" s="82"/>
+    </row>
+    <row r="399" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C399" t="s">
         <v>466</v>
       </c>
-      <c r="M398" s="82"/>
-    </row>
-    <row r="399" spans="3:13" x14ac:dyDescent="0.3">
       <c r="M399" s="82"/>
     </row>
     <row r="400" spans="3:13" x14ac:dyDescent="0.3">
       <c r="M400" s="82"/>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C401" t="s">
-        <v>3282</v>
-      </c>
       <c r="M401" s="82"/>
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C402" t="s">
+        <v>3282</v>
+      </c>
+      <c r="M402" s="82"/>
+    </row>
+    <row r="403" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C403" t="s">
         <v>466</v>
       </c>
-      <c r="M402" s="82"/>
-    </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M403" s="82"/>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M404" s="82"/>
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C405" t="s">
-        <v>3283</v>
-      </c>
       <c r="M405" s="82"/>
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C406" t="s">
+        <v>3283</v>
+      </c>
+      <c r="M406" s="82"/>
+    </row>
+    <row r="407" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C407" t="s">
         <v>466</v>
       </c>
-      <c r="M406" s="82"/>
-    </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M407" s="82"/>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A409" s="5" t="s">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M408" s="82"/>
+    </row>
+    <row r="410" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A410" s="5" t="s">
         <v>3290</v>
       </c>
-      <c r="M409" s="82"/>
-    </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A410" s="5"/>
-      <c r="B410" t="s">
+      <c r="M410" s="82"/>
+    </row>
+    <row r="411" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A411" s="5"/>
+      <c r="B411" t="s">
         <v>3291</v>
       </c>
-      <c r="M410" s="82"/>
-    </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M411" s="82"/>
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C412" t="s">
-        <v>3025</v>
-      </c>
       <c r="M412" s="82"/>
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C413" t="s">
+        <v>3025</v>
+      </c>
+      <c r="M413" s="82"/>
+    </row>
+    <row r="414" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C414" t="s">
         <v>3284</v>
       </c>
-      <c r="M413" s="82"/>
-    </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M414" s="82"/>
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C415" t="s">
-        <v>3286</v>
-      </c>
       <c r="M415" s="82"/>
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C416" t="s">
-        <v>3122</v>
+        <v>3286</v>
       </c>
       <c r="M416" s="82"/>
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C417" t="s">
+        <v>3122</v>
+      </c>
+      <c r="M417" s="82"/>
+    </row>
+    <row r="418" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C418" t="s">
         <v>3287</v>
       </c>
-      <c r="M417" s="82"/>
-    </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M418" s="82"/>
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M419" s="82"/>
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C420" t="s">
-        <v>3292</v>
-      </c>
       <c r="M420" s="82"/>
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C421" t="s">
-        <v>3124</v>
+        <v>3292</v>
       </c>
       <c r="M421" s="82"/>
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C422" t="s">
-        <v>3288</v>
+        <v>3124</v>
       </c>
       <c r="M422" s="82"/>
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C423" t="s">
-        <v>3293</v>
+        <v>3288</v>
       </c>
       <c r="M423" s="82"/>
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C424" t="s">
+        <v>3293</v>
+      </c>
+      <c r="M424" s="82"/>
+    </row>
+    <row r="425" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C425" t="s">
         <v>3127</v>
       </c>
-      <c r="M424" s="82"/>
-    </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M425" s="82"/>
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C426" t="s">
-        <v>3059</v>
-      </c>
+      <c r="M426" s="82"/>
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C427" t="s">
-        <v>3289</v>
-      </c>
-      <c r="I427" t="s">
-        <v>3294</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="428" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C428" t="s">
+        <v>3289</v>
+      </c>
+      <c r="I428" t="s">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="429" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C429" t="s">
         <v>3061</v>
       </c>
-      <c r="M428" s="82"/>
-    </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M429" s="82"/>
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M430" s="82"/>
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A431" s="5" t="s">
+      <c r="M431" s="82"/>
+    </row>
+    <row r="432" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A432" s="5" t="s">
         <v>3295</v>
-      </c>
-      <c r="M431" s="82"/>
-    </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F432" t="s">
-        <v>1433</v>
       </c>
       <c r="M432" s="82"/>
     </row>
     <row r="433" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F433" t="s">
+        <v>1433</v>
+      </c>
+      <c r="M433" s="82"/>
+    </row>
+    <row r="434" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F434" t="s">
         <v>1434</v>
-      </c>
-      <c r="M433" s="82"/>
-    </row>
-    <row r="434" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B434" s="82" t="s">
-        <v>3296</v>
-      </c>
-      <c r="F434" t="s">
-        <v>2774</v>
       </c>
       <c r="M434" s="82"/>
     </row>
     <row r="435" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B435" s="82" t="s">
-        <v>3298</v>
+        <v>3296</v>
       </c>
       <c r="F435" t="s">
-        <v>3299</v>
+        <v>2774</v>
       </c>
       <c r="M435" s="82"/>
     </row>
     <row r="436" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B436" s="82" t="s">
+        <v>3298</v>
+      </c>
+      <c r="F436" t="s">
+        <v>3299</v>
+      </c>
+      <c r="M436" s="82"/>
+    </row>
+    <row r="437" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B437" s="82" t="s">
         <v>3297</v>
       </c>
-      <c r="F436" t="s">
+      <c r="F437" t="s">
         <v>2777</v>
-      </c>
-    </row>
-    <row r="437" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F437" t="s">
-        <v>3308</v>
       </c>
     </row>
     <row r="438" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F438" t="s">
-        <v>3300</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="439" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F439" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="440" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F440" t="s">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="441" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F441" t="s">
         <v>3302</v>
       </c>
     </row>
-    <row r="441" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F441" s="82" t="s">
+    <row r="442" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F442" s="82" t="s">
         <v>3311</v>
-      </c>
-    </row>
-    <row r="442" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F442" t="s">
-        <v>3309</v>
       </c>
     </row>
     <row r="443" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F443" t="s">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="444" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F444" t="s">
         <v>3310</v>
       </c>
     </row>
-    <row r="444" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F444" s="82" t="s">
+    <row r="445" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F445" s="82" t="s">
         <v>3305</v>
       </c>
-      <c r="G444" s="82"/>
-    </row>
-    <row r="445" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F445" t="s">
-        <v>3306</v>
-      </c>
+      <c r="G445" s="82"/>
     </row>
     <row r="446" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F446" t="s">
-        <v>1784</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="447" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F447" t="s">
-        <v>3307</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="448" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F448" t="s">
-        <v>1429</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F449" t="s">
-        <v>2775</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F450" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F451" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A452" s="5" t="s">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A453" s="5" t="s">
         <v>3314</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B453" t="s">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B454" t="s">
         <v>3313</v>
-      </c>
-    </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C454" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C455" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C456" t="s">
         <v>3312</v>
-      </c>
-    </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C457" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C458" t="s">
-        <v>3322</v>
+        <v>447</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C459" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C460" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A460" s="5" t="s">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A461" s="5" t="s">
         <v>3315</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B461" t="s">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B462" t="s">
         <v>3317</v>
-      </c>
-    </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C463" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C464" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C465" t="s">
         <v>454</v>
-      </c>
-    </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C466" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C467" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C468" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C469" t="s">
         <v>3178</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C469" s="5" t="s">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C470" s="5" t="s">
         <v>3316</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C470" t="s">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C471" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A472" s="5" t="s">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A473" s="5" t="s">
         <v>3319</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B473" t="s">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B474" t="s">
         <v>3320</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C474" t="s">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C475" t="s">
         <v>3318</v>
       </c>
-      <c r="I474" t="s">
+      <c r="I475" t="s">
         <v>3321</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C477" s="14" t="s">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C478" s="14" t="s">
         <v>3323</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A479" s="5" t="s">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A480" s="5" t="s">
         <v>3327</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B480" t="s">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B481" t="s">
         <v>3291</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C481" t="s">
-        <v>3335</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C482" t="s">
-        <v>3329</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C483" t="s">
-        <v>3328</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C484" t="s">
-        <v>3326</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C485" t="s">
-        <v>3330</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C486" t="s">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C487" t="s">
         <v>3127</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A488" s="5" t="s">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A489" s="5" t="s">
         <v>3338</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B489" t="s">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B490" t="s">
         <v>3313</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C490" t="s">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C491" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C492" t="s">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C493" t="s">
         <v>3312</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C494" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C495" t="s">
-        <v>3337</v>
+        <v>447</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C496" t="s">
-        <v>3334</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C497" t="s">
-        <v>3336</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C498" t="s">
-        <v>1000</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C499" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C500" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A501" s="5" t="s">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A502" s="5" t="s">
         <v>3349</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B502" t="s">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B503" t="s">
         <v>3340</v>
       </c>
-      <c r="G502" t="s">
+      <c r="G503" t="s">
         <v>1433</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G503" t="s">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G504" t="s">
         <v>1434</v>
-      </c>
-    </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G505" t="s">
-        <v>2774</v>
       </c>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G506" t="s">
-        <v>3343</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G507" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G508" t="s">
-        <v>3308</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G509" t="s">
-        <v>3300</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G510" t="s">
-        <v>3345</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G511" t="s">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G512" t="s">
         <v>3302</v>
-      </c>
-    </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C512" s="82" t="s">
-        <v>3341</v>
-      </c>
-      <c r="G512" t="s">
-        <v>3346</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C513" s="82" t="s">
-        <v>3298</v>
-      </c>
-      <c r="G513" s="5" t="s">
-        <v>3303</v>
+        <v>3341</v>
+      </c>
+      <c r="G513" t="s">
+        <v>3346</v>
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.3">
@@ -46971,592 +46996,592 @@
         <v>3298</v>
       </c>
       <c r="G514" s="5" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C515" s="82" t="s">
+        <v>3298</v>
+      </c>
+      <c r="G515" s="5" t="s">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C516" s="82" t="s">
         <v>3342</v>
       </c>
-      <c r="G515" t="s">
+      <c r="G516" t="s">
         <v>3347</v>
-      </c>
-    </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G516" t="s">
-        <v>3348</v>
       </c>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G517" t="s">
-        <v>1784</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G518" t="s">
-        <v>3307</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G519" t="s">
-        <v>1429</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G520" t="s">
-        <v>2775</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G521" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G522" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A523" s="5" t="s">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A524" s="5" t="s">
         <v>3352</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B525" t="s">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B526" t="s">
         <v>3291</v>
-      </c>
-    </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C526" t="s">
-        <v>3353</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C527" t="s">
-        <v>3329</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C528" t="s">
-        <v>3326</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C529" t="s">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C530" t="s">
         <v>3354</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A531" s="5" t="s">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A532" s="5" t="s">
         <v>3377</v>
-      </c>
-    </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B533" t="s">
-        <v>1433</v>
-      </c>
-      <c r="G533" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B534" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G534" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B535" t="s">
         <v>1434</v>
       </c>
-      <c r="G534" t="s">
+      <c r="G535" t="s">
         <v>1434</v>
-      </c>
-    </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B536" t="s">
-        <v>2774</v>
-      </c>
-      <c r="G536" t="s">
-        <v>2774</v>
       </c>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B537" t="s">
-        <v>3355</v>
+        <v>2774</v>
       </c>
       <c r="G537" t="s">
-        <v>3355</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B538" t="s">
-        <v>3356</v>
+        <v>3355</v>
       </c>
       <c r="G538" t="s">
-        <v>3356</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B539" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="G539" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B540" t="s">
-        <v>3358</v>
+        <v>3357</v>
       </c>
       <c r="G540" t="s">
-        <v>3358</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B541" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="G541" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B542" t="s">
-        <v>3378</v>
+        <v>3359</v>
       </c>
       <c r="G542" t="s">
-        <v>3360</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B543" t="s">
+        <v>3378</v>
+      </c>
+      <c r="G543" t="s">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B544" t="s">
         <v>1421</v>
       </c>
-      <c r="G543" t="s">
+      <c r="G544" t="s">
         <v>1421</v>
-      </c>
-    </row>
-    <row r="545" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B545" t="s">
-        <v>3361</v>
-      </c>
-      <c r="G545" t="s">
-        <v>3361</v>
       </c>
     </row>
     <row r="546" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B546" t="s">
-        <v>3362</v>
+        <v>3361</v>
       </c>
       <c r="G546" t="s">
-        <v>3362</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="547" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B547" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="G547" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="548" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B548" t="s">
-        <v>3379</v>
+        <v>3363</v>
       </c>
       <c r="G548" t="s">
-        <v>3364</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="549" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B549" t="s">
-        <v>3380</v>
+        <v>3379</v>
       </c>
       <c r="G549" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="550" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B550" t="s">
-        <v>3381</v>
+        <v>3380</v>
       </c>
       <c r="G550" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="551" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B551" t="s">
-        <v>3382</v>
+        <v>3381</v>
       </c>
       <c r="G551" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="552" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B552" t="s">
+        <v>3382</v>
+      </c>
+      <c r="G552" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="553" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B553" t="s">
         <v>3389</v>
       </c>
-      <c r="G552" s="11" t="s">
+      <c r="G553" s="11" t="s">
         <v>3368</v>
       </c>
     </row>
-    <row r="553" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B553" s="11" t="s">
+    <row r="554" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B554" s="11" t="s">
         <v>3368</v>
       </c>
-      <c r="G553" t="s">
+      <c r="G554" t="s">
         <v>3369</v>
       </c>
     </row>
-    <row r="554" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B554" t="s">
+    <row r="555" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B555" t="s">
         <v>3384</v>
       </c>
-      <c r="G554" t="s">
+      <c r="G555" t="s">
         <v>3370</v>
       </c>
     </row>
-    <row r="555" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B555" s="11" t="s">
+    <row r="556" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B556" s="11" t="s">
         <v>3372</v>
       </c>
-      <c r="C555" s="11"/>
-      <c r="G555" t="s">
+      <c r="C556" s="11"/>
+      <c r="G556" t="s">
         <v>3371</v>
-      </c>
-    </row>
-    <row r="556" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B556" t="s">
-        <v>3388</v>
-      </c>
-      <c r="G556" s="11" t="s">
-        <v>3372</v>
       </c>
     </row>
     <row r="557" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B557" t="s">
+        <v>3388</v>
+      </c>
+      <c r="G557" s="11" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="558" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B558" t="s">
         <v>1784</v>
       </c>
-      <c r="G557" t="s">
+      <c r="G558" t="s">
         <v>1784</v>
-      </c>
-    </row>
-    <row r="559" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B559" t="s">
-        <v>3373</v>
-      </c>
-      <c r="G559" t="s">
-        <v>3373</v>
       </c>
     </row>
     <row r="560" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B560" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="G560" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B561" t="s">
-        <v>3383</v>
+        <v>3374</v>
       </c>
       <c r="G561" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B562" t="s">
-        <v>3376</v>
+        <v>3383</v>
       </c>
       <c r="G562" t="s">
-        <v>3376</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="563" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B563" t="s">
-        <v>1784</v>
+        <v>3376</v>
       </c>
       <c r="G563" t="s">
-        <v>1784</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="564" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B564" t="s">
-        <v>1421</v>
+        <v>1784</v>
       </c>
       <c r="G564" t="s">
-        <v>1421</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="565" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B565" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="G565" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="566" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B566" t="s">
-        <v>2775</v>
+        <v>1422</v>
       </c>
       <c r="G566" t="s">
-        <v>2775</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="567" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B567" t="s">
+        <v>2775</v>
+      </c>
+      <c r="G567" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B568" t="s">
         <v>1439</v>
       </c>
-      <c r="G567" t="s">
+      <c r="G568" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A570" s="5" t="s">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A571" s="5" t="s">
         <v>3387</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A571" s="5"/>
-      <c r="B571" t="s">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A572" s="5"/>
+      <c r="B572" t="s">
         <v>3200</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B573" t="s">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B574" t="s">
         <v>3386</v>
       </c>
-      <c r="H573" t="s">
+      <c r="H574" t="s">
         <v>3385</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A575" s="5" t="s">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A576" s="5" t="s">
         <v>3391</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B577" t="s">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B578" t="s">
         <v>3392</v>
-      </c>
-    </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C578" t="s">
-        <v>3395</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C579" t="s">
-        <v>3329</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C580" t="s">
-        <v>3396</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C581" t="s">
-        <v>3326</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C582" t="s">
-        <v>3397</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C583" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C584" t="s">
         <v>3398</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A585" s="5" t="s">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A586" s="5" t="s">
         <v>3399</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B586" t="s">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B587" t="s">
         <v>3400</v>
-      </c>
-    </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C588" t="s">
-        <v>3401</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C589" t="s">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C590" t="s">
         <v>3402</v>
-      </c>
-    </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C591" t="s">
-        <v>3403</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C592" t="s">
-        <v>3404</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C593" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C594" t="s">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C595" t="s">
         <v>3428</v>
-      </c>
-    </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C596" t="s">
-        <v>2059</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C597" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C598" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C599" t="s">
         <v>3406</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A600" s="5" t="s">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A601" s="5" t="s">
         <v>3407</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B602" t="s">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B603" t="s">
         <v>3408</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C604" t="s">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C605" t="s">
         <v>3410</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C605" s="5" t="s">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C606" s="5" t="s">
         <v>3409</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A607" s="5" t="s">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A608" s="5" t="s">
         <v>3411</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B608" t="s">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B609" t="s">
         <v>3392</v>
-      </c>
-    </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C610" t="s">
-        <v>3395</v>
       </c>
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C611" t="s">
-        <v>3329</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C612" t="s">
-        <v>3393</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C613" t="s">
-        <v>3326</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C614" t="s">
-        <v>3394</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C615" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="616" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C616" t="s">
         <v>3127</v>
-      </c>
-    </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C617" s="5" t="s">
-        <v>3412</v>
-      </c>
-      <c r="G617" t="s">
-        <v>3414</v>
       </c>
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C618" s="5" t="s">
+        <v>3412</v>
+      </c>
+      <c r="G618" t="s">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="619" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C619" s="5" t="s">
         <v>3413</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A621" s="5" t="s">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A622" s="5" t="s">
         <v>3421</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B622" t="s">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B623" t="s">
         <v>3420</v>
-      </c>
-    </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C624" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="625" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C625" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="626" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C626" t="s">
         <v>1434</v>
       </c>
     </row>
-    <row r="627" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C627" t="s">
+    <row r="628" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C628" t="s">
         <v>2774</v>
-      </c>
-    </row>
-    <row r="629" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C629" t="s">
-        <v>3415</v>
       </c>
     </row>
     <row r="630" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C630" t="s">
-        <v>3344</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="631" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C631" t="s">
-        <v>3308</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="632" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C632" t="s">
-        <v>3300</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="633" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C633" t="s">
-        <v>3416</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="634" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C634" t="s">
-        <v>3302</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="635" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C635" t="s">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="636" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C636" t="s">
         <v>3417</v>
-      </c>
-    </row>
-    <row r="636" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D636" s="14" t="s">
-        <v>2778</v>
-      </c>
-      <c r="H636" s="5" t="s">
-        <v>3303</v>
       </c>
     </row>
     <row r="637" spans="3:8" x14ac:dyDescent="0.3">
@@ -47564,1068 +47589,1076 @@
         <v>2778</v>
       </c>
       <c r="H637" s="5" t="s">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="638" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D638" s="14" t="s">
+        <v>2778</v>
+      </c>
+      <c r="H638" s="5" t="s">
         <v>3304</v>
-      </c>
-    </row>
-    <row r="638" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C638" t="s">
-        <v>3418</v>
       </c>
     </row>
     <row r="639" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C639" t="s">
-        <v>3419</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="640" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C640" t="s">
-        <v>1784</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C641" t="s">
-        <v>3307</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C642" t="s">
-        <v>1429</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C643" t="s">
-        <v>2775</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C644" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C645" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A646" s="5" t="s">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A647" s="5" t="s">
         <v>3422</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B647" t="s">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B648" t="s">
         <v>3313</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C648" t="s">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C649" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C650" t="s">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C651" t="s">
         <v>3312</v>
-      </c>
-    </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C652" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C653" t="s">
-        <v>3331</v>
+        <v>447</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C654" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C655" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C656" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C657" t="s">
         <v>3423</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C657" s="5" t="s">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C658" s="5" t="s">
         <v>3424</v>
-      </c>
-    </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C658" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C659" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C660" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A661" s="5" t="s">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A662" s="5" t="s">
         <v>3425</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B662" t="s">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B663" t="s">
         <v>3426</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C663" t="s">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C664" t="s">
         <v>3427</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A665" s="5" t="s">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A666" s="5" t="s">
         <v>3429</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B666" t="s">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B667" t="s">
         <v>3392</v>
-      </c>
-    </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C668" t="s">
-        <v>3395</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C669" t="s">
-        <v>3329</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C670" t="s">
-        <v>3393</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C671" t="s">
-        <v>3326</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C672" t="s">
-        <v>3394</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="673" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C673" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="674" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C674" t="s">
         <v>3127</v>
-      </c>
-    </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C675" t="s">
-        <v>3412</v>
       </c>
     </row>
     <row r="676" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C676" t="s">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="677" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C677" t="s">
         <v>3413</v>
-      </c>
-    </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C678" s="5" t="s">
-        <v>3430</v>
-      </c>
-      <c r="G678" t="s">
-        <v>3432</v>
       </c>
     </row>
     <row r="679" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C679" s="5" t="s">
+        <v>3430</v>
+      </c>
+      <c r="G679" t="s">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="680" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C680" s="5" t="s">
         <v>3431</v>
       </c>
-      <c r="G679" t="s">
+      <c r="G680" t="s">
         <v>3433</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D681" t="s">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D682" t="s">
         <v>3434</v>
       </c>
-      <c r="I681" t="s">
+      <c r="I682" t="s">
         <v>3435</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I682" t="s">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I683" t="s">
         <v>3436</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A684" s="5" t="s">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A685" s="5" t="s">
         <v>3442</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B685" t="s">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B686" t="s">
         <v>3441</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C686" t="s">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C687" t="s">
         <v>3351</v>
-      </c>
-    </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C688" t="s">
-        <v>3287</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C689" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C690" t="s">
         <v>2823</v>
-      </c>
-    </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C692" t="s">
-        <v>3437</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C693" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C694" t="s">
         <v>3438</v>
-      </c>
-    </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C695" t="s">
-        <v>3439</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C696" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C697" t="s">
         <v>3440</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A698" s="5" t="s">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A699" s="5" t="s">
         <v>3443</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B700" t="s">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B701" t="s">
         <v>3444</v>
-      </c>
-    </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C702" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C703" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C704" t="s">
         <v>3445</v>
-      </c>
-    </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C705" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C706" t="s">
-        <v>3446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C707" t="s">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C708" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A709" s="5" t="s">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A710" s="5" t="s">
         <v>3447</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B711" t="s">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B712" t="s">
         <v>3317</v>
-      </c>
-    </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C712" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C713" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C714" t="s">
         <v>454</v>
-      </c>
-    </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C715" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C716" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C717" t="s">
-        <v>3178</v>
+        <v>455</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C718" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C719" t="s">
         <v>3316</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C719" s="5" t="s">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C720" s="5" t="s">
         <v>3448</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C720" t="s">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C721" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A722" s="5" t="s">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A723" s="5" t="s">
         <v>3449</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B724" t="s">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B725" t="s">
         <v>3450</v>
-      </c>
-    </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C725" t="s">
-        <v>3025</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C726" t="s">
-        <v>3120</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C727" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C728" t="s">
         <v>3121</v>
-      </c>
-    </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C729" t="s">
-        <v>3122</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C730" t="s">
-        <v>3287</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C731" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C732" t="s">
         <v>3451</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C733" t="s">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C734" t="s">
         <v>513</v>
-      </c>
-    </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C736" t="s">
-        <v>3123</v>
       </c>
     </row>
     <row r="737" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C737" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="738" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C738" t="s">
-        <v>3126</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="739" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C739" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="740" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C740" t="s">
         <v>3127</v>
-      </c>
-    </row>
-    <row r="741" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C741" t="s">
-        <v>3128</v>
       </c>
     </row>
     <row r="742" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C742" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="743" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C743" t="s">
         <v>3129</v>
-      </c>
-    </row>
-    <row r="744" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C744" t="s">
-        <v>3130</v>
       </c>
     </row>
     <row r="745" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C745" t="s">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="746" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C746" t="s">
         <v>3131</v>
       </c>
     </row>
-    <row r="747" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C747" t="s">
+    <row r="748" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C748" t="s">
         <v>3132</v>
-      </c>
-    </row>
-    <row r="749" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C749" t="s">
-        <v>3059</v>
       </c>
     </row>
     <row r="750" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C750" t="s">
-        <v>3452</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="751" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C751" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="752" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C752" t="s">
         <v>3061</v>
-      </c>
-    </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C753" s="5" t="s">
-        <v>3453</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C754" s="5" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C755" s="5" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C756" s="5" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C757" s="5" t="s">
         <v>3456</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A758" s="5" t="s">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A759" s="5" t="s">
         <v>3469</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B760" t="s">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B761" t="s">
         <v>3339</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C761" t="s">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C762" t="s">
         <v>1355</v>
-      </c>
-    </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C763" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C764" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C765" t="s">
-        <v>3230</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C766" t="s">
-        <v>3231</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C767" t="s">
-        <v>3232</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C768" t="s">
-        <v>3233</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="769" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C769" t="s">
-        <v>3457</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="770" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C770" t="s">
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="771" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C771" t="s">
         <v>3234</v>
-      </c>
-    </row>
-    <row r="772" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C772" t="s">
-        <v>3235</v>
       </c>
     </row>
     <row r="773" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C773" t="s">
-        <v>3236</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="774" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C774" t="s">
-        <v>3237</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="775" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C775" t="s">
-        <v>3238</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="776" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C776" t="s">
-        <v>3239</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="777" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C777" t="s">
-        <v>3458</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="778" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C778" t="s">
-        <v>3468</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="779" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C779" t="s">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="780" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C780" t="s">
         <v>3240</v>
       </c>
     </row>
-    <row r="780" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C780" s="5" t="s">
+    <row r="781" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C781" s="5" t="s">
         <v>3459</v>
-      </c>
-    </row>
-    <row r="781" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C781" t="s">
-        <v>3460</v>
       </c>
     </row>
     <row r="782" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C782" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="783" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C783" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="784" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C784" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="785" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C785" t="s">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="786" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C786" t="s">
         <v>3464</v>
       </c>
     </row>
-    <row r="786" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C786" s="5" t="s">
+    <row r="787" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C787" s="5" t="s">
         <v>3465</v>
-      </c>
-    </row>
-    <row r="787" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C787" t="s">
-        <v>3241</v>
       </c>
     </row>
     <row r="788" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C788" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="789" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C789" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="790" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C790" t="s">
-        <v>3466</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="791" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C791" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="792" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C792" t="s">
-        <v>2766</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="793" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C793" t="s">
-        <v>3258</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="794" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C794" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="795" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C795" t="s">
-        <v>3260</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="796" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C796" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="797" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C797" t="s">
-        <v>1422</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="798" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C798" t="s">
-        <v>3262</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="799" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C799" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="800" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C800" t="s">
         <v>1375</v>
       </c>
     </row>
-    <row r="801" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A801" t="s">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A802" t="s">
         <v>3470</v>
       </c>
     </row>
-    <row r="802" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B802" t="s">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B803" t="s">
         <v>3485</v>
-      </c>
-    </row>
-    <row r="804" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C804" t="s">
-        <v>1433</v>
-      </c>
-      <c r="I804" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="805" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C805" t="s">
+        <v>1433</v>
+      </c>
+      <c r="I805" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="806" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C806" t="s">
         <v>1434</v>
       </c>
-      <c r="I805" t="s">
+      <c r="I806" t="s">
         <v>1434</v>
-      </c>
-    </row>
-    <row r="807" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C807" t="s">
-        <v>2774</v>
-      </c>
-      <c r="I807" t="s">
-        <v>2774</v>
       </c>
     </row>
     <row r="808" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C808" t="s">
-        <v>3355</v>
+        <v>2774</v>
       </c>
       <c r="I808" t="s">
-        <v>3355</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="809" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C809" t="s">
-        <v>3356</v>
+        <v>3355</v>
       </c>
       <c r="I809" t="s">
-        <v>3356</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="810" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C810" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="I810" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="811" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C811" t="s">
-        <v>3471</v>
+        <v>3357</v>
       </c>
       <c r="I811" t="s">
-        <v>3471</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="812" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C812" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
       <c r="I812" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="813" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C813" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
       <c r="I813" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="814" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C814" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="I814" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="815" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C815" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="I815" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="816" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C816" t="s">
+        <v>3475</v>
+      </c>
+      <c r="I816" t="s">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="817" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C817" t="s">
         <v>1421</v>
       </c>
-      <c r="I816" t="s">
+      <c r="I817" t="s">
         <v>1421</v>
-      </c>
-    </row>
-    <row r="818" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C818" t="s">
-        <v>3476</v>
-      </c>
-      <c r="I818" t="s">
-        <v>3476</v>
       </c>
     </row>
     <row r="819" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C819" t="s">
-        <v>3477</v>
+        <v>3476</v>
       </c>
       <c r="I819" t="s">
-        <v>3477</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="820" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C820" t="s">
-        <v>3486</v>
+        <v>3477</v>
       </c>
       <c r="I820" t="s">
-        <v>3478</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="821" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C821" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="I821" t="s">
-        <v>3479</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="822" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C822" t="s">
-        <v>3488</v>
+        <v>3487</v>
       </c>
       <c r="I822" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="823" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C823" t="s">
-        <v>3489</v>
+        <v>3488</v>
       </c>
       <c r="I823" t="s">
-        <v>3481</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="824" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C824" t="s">
+        <v>3489</v>
+      </c>
+      <c r="I824" t="s">
+        <v>3481</v>
+      </c>
+    </row>
+    <row r="825" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C825" t="s">
         <v>1421</v>
       </c>
-      <c r="I824" t="s">
+      <c r="I825" t="s">
         <v>1421</v>
-      </c>
-    </row>
-    <row r="826" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C826" t="s">
-        <v>3482</v>
-      </c>
-      <c r="I826" t="s">
-        <v>3482</v>
       </c>
     </row>
     <row r="827" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C827" t="s">
-        <v>3483</v>
+        <v>3482</v>
       </c>
       <c r="I827" t="s">
-        <v>3483</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="828" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C828" t="s">
-        <v>3484</v>
+        <v>3483</v>
       </c>
       <c r="I828" t="s">
-        <v>3484</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="829" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C829" t="s">
-        <v>1421</v>
+        <v>3484</v>
       </c>
       <c r="I829" t="s">
-        <v>1421</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="830" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C830" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="I830" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="831" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C831" t="s">
-        <v>2775</v>
+        <v>1422</v>
       </c>
       <c r="I831" t="s">
-        <v>2775</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="832" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C832" t="s">
+        <v>2775</v>
+      </c>
+      <c r="I832" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="833" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C833" t="s">
         <v>1439</v>
       </c>
-      <c r="I832" t="s">
+      <c r="I833" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A835" s="5" t="s">
+    <row r="836" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A836" s="5" t="s">
         <v>3490</v>
       </c>
     </row>
-    <row r="837" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B837" t="s">
+    <row r="838" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B838" t="s">
         <v>3117</v>
       </c>
     </row>
-    <row r="838" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C838" t="s">
+    <row r="839" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C839" t="s">
         <v>3491</v>
       </c>
     </row>
-    <row r="839" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C839" t="s">
+    <row r="840" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C840" t="s">
         <v>3492</v>
       </c>
     </row>
-    <row r="840" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C840" t="s">
+    <row r="841" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C841" t="s">
         <v>3398</v>
       </c>
     </row>
-    <row r="842" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C842" t="s">
+    <row r="843" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C843" t="s">
         <v>3439</v>
       </c>
     </row>
-    <row r="843" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C843" t="s">
+    <row r="844" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C844" t="s">
         <v>3440</v>
       </c>
     </row>
-    <row r="845" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A845" s="5" t="s">
+    <row r="846" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A846" s="5" t="s">
         <v>3493</v>
       </c>
     </row>
-    <row r="846" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B846" t="s">
+    <row r="847" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B847" t="s">
         <v>3444</v>
       </c>
     </row>
-    <row r="847" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C847" t="s">
+    <row r="848" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C848" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="849" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C849" t="s">
+    <row r="850" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C850" t="s">
         <v>3445</v>
-      </c>
-    </row>
-    <row r="851" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C851" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C852" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="853" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C853" t="s">
         <v>3494</v>
       </c>
     </row>
-    <row r="853" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C853" s="5" t="s">
+    <row r="854" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C854" s="5" t="s">
         <v>3495</v>
       </c>
     </row>
-    <row r="855" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C855" t="s">
+    <row r="856" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C856" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="857" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A857" s="5" t="s">
+    <row r="858" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A858" s="5" t="s">
         <v>3507</v>
       </c>
     </row>
-    <row r="858" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B858" t="s">
+    <row r="859" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B859" t="s">
         <v>3485</v>
       </c>
     </row>
-    <row r="860" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C860" t="s">
+    <row r="861" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C861" t="s">
         <v>3496</v>
       </c>
     </row>
-    <row r="862" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A862" s="5" t="s">
+    <row r="863" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A863" s="5" t="s">
         <v>3506</v>
       </c>
     </row>
-    <row r="863" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B863" t="s">
+    <row r="864" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B864" t="s">
         <v>3504</v>
-      </c>
-    </row>
-    <row r="865" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C865" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="866" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C866" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="867" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C867" t="s">
         <v>1434</v>
-      </c>
-    </row>
-    <row r="868" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C868" t="s">
-        <v>2774</v>
       </c>
     </row>
     <row r="869" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C869" t="s">
-        <v>3497</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="870" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C870" t="s">
-        <v>3356</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="871" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C871" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="872" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C872" t="s">
-        <v>3476</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="873" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C873" t="s">
-        <v>3498</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="874" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C874" t="s">
-        <v>3499</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="875" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C875" t="s">
-        <v>3505</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="876" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C876" t="s">
+        <v>3505</v>
+      </c>
+    </row>
+    <row r="877" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C877" t="s">
         <v>3500</v>
-      </c>
-    </row>
-    <row r="877" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C877" s="5" t="s">
-        <v>3303</v>
       </c>
     </row>
     <row r="878" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C878" s="5" t="s">
+        <v>3303</v>
+      </c>
+    </row>
+    <row r="879" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C879" s="5" t="s">
         <v>3304</v>
-      </c>
-    </row>
-    <row r="879" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C879" t="s">
-        <v>3501</v>
       </c>
     </row>
     <row r="880" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C880" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C881" t="s">
-        <v>3503</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C882" t="s">
-        <v>1421</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="883" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C883" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C884" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="885" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C885" t="s">
         <v>2775</v>
       </c>
     </row>
-    <row r="886" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C886" t="s">
+    <row r="887" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C887" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="888" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A888" s="5" t="s">
+    <row r="889" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A889" s="5" t="s">
         <v>420</v>
       </c>
     </row>

--- a/Django 01.03.25.xlsx
+++ b/Django 01.03.25.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9804" tabRatio="858" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9804" tabRatio="858" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5431" uniqueCount="3942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5475" uniqueCount="3982">
   <si>
     <t>HTTP</t>
   </si>
@@ -43408,13 +43408,497 @@
   </si>
   <si>
     <t>python manage.py loaddata data.json</t>
+  </si>
+  <si>
+    <t>get_context_data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    fields = ['title', 'author']</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BookCreateView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(CreateView):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    model = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Book</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    def </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get_context_data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(self, **kwargs):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        context = super().</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get_context_data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(**kwargs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        context['</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>page_title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'] = "Add a New Book"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In any CBV—including </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CreateView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">—you override </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get_context_data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">() </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to inject extra variables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> into the template context.</t>
+    </r>
+  </si>
+  <si>
+    <t>This is useful when you want to pass additional data (like headings, instructions, or related models) to the template.</t>
+  </si>
+  <si>
+    <t>context = super().get_context_data(**kwargs)</t>
+  </si>
+  <si>
+    <t>This line is calling the get_context_data method of the parent class (CreateView), and storing its result in the context variable.</t>
+  </si>
+  <si>
+    <t>What is get_context_data()?</t>
+  </si>
+  <si>
+    <t>In Django class-based views, get_context_data() is a method that:</t>
+  </si>
+  <si>
+    <t>Builds the context dictionary — a set of variables that will be passed to your template.</t>
+  </si>
+  <si>
+    <t>By default, it includes things like:</t>
+  </si>
+  <si>
+    <t>the form (form)</t>
+  </si>
+  <si>
+    <t>the object (if available)</t>
+  </si>
+  <si>
+    <t>any extra context Django provides</t>
+  </si>
+  <si>
+    <t>What Does super().get_context_data(**kwargs) Do?</t>
+  </si>
+  <si>
+    <t>super() refers to the parent class (CreateView in this case).</t>
+  </si>
+  <si>
+    <t>get_context_data(**kwargs) calls the original method to get the default context variables.</t>
+  </si>
+  <si>
+    <t>**kwargs allows any extra context data passed in to be forwarded.</t>
+  </si>
+  <si>
+    <t>So in short:</t>
+  </si>
+  <si>
+    <t>means:</t>
+  </si>
+  <si>
+    <t>Get the default context dictionary from the parent view (which includes the form), and store it in the context variable.</t>
+  </si>
+  <si>
+    <t>Why Do This?</t>
+  </si>
+  <si>
+    <t>Once you have the default context, you can add your own values to it</t>
+  </si>
+  <si>
+    <t>context['page_title'] = "Add a New Book"</t>
+  </si>
+  <si>
+    <t>This adds a variable page_title that you can use in your template:</t>
+  </si>
+  <si>
+    <t>&lt;h1&gt;{{ page_title }}&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>What is the data type of the variable context?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get_context_data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">() method from Django's class-based views returns a Python </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dictionary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that contains all the variables (key-value pairs) Django will </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pass to the template</t>
+    </r>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    # Plus any extra data you add, like:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>': &lt;BookForm instance&gt;,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>view</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>': &lt;BookCreateView instance&gt;,</t>
+    </r>
+  </si>
+  <si>
+    <t>You can think of it as a dictionary of template variables.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>page_title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>': '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add a New Book</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>',</t>
+    </r>
+  </si>
+  <si>
+    <t>Use in Templates</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This context is what makes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>variables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> like {{ form }} or {{ page_title }} </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>available</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in your HTML template</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="83">
+  <fonts count="84">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44049,6 +44533,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFA47A20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -44397,8 +44889,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFA47A20"/>
       <color rgb="FF7D7DFF"/>
-      <color rgb="FFA47A20"/>
       <color rgb="FF179A77"/>
       <color rgb="FFA626A4"/>
       <color rgb="FFDA7BB9"/>
@@ -44793,7 +45285,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44813,7 +45305,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -44853,7 +45345,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -44873,7 +45365,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -45227,7 +45719,7 @@
   <dimension ref="A3:H63"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -46761,10 +47253,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F241"/>
+  <dimension ref="A1:F307"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A283" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D258" sqref="D258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -47717,9 +48209,229 @@
         <v>3160</v>
       </c>
     </row>
-    <row r="241" spans="2:2">
+    <row r="241" spans="1:2">
       <c r="B241" t="s">
         <v>3161</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="3" t="s">
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="B245" t="s">
+        <v>3944</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="B246" t="s">
+        <v>3945</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="B247" t="s">
+        <v>3943</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="B249" t="s">
+        <v>3946</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="B250" t="s">
+        <v>3947</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="B251" t="s">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="B252" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="B254" t="s">
+        <v>3949</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="B255" t="s">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5">
+      <c r="B257" t="s">
+        <v>3951</v>
+      </c>
+    </row>
+    <row r="259" spans="2:5">
+      <c r="C259" t="s">
+        <v>3952</v>
+      </c>
+    </row>
+    <row r="261" spans="2:5">
+      <c r="B261" s="3" t="s">
+        <v>3953</v>
+      </c>
+    </row>
+    <row r="263" spans="2:5">
+      <c r="C263" t="s">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="264" spans="2:5">
+      <c r="D264" t="s">
+        <v>3955</v>
+      </c>
+    </row>
+    <row r="266" spans="2:5">
+      <c r="D266" t="s">
+        <v>3956</v>
+      </c>
+    </row>
+    <row r="267" spans="2:5">
+      <c r="E267" t="s">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="268" spans="2:5">
+      <c r="E268" t="s">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="269" spans="2:5">
+      <c r="E269" t="s">
+        <v>3959</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5">
+      <c r="B271" s="3" t="s">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="273" spans="2:4">
+      <c r="C273" t="s">
+        <v>3961</v>
+      </c>
+    </row>
+    <row r="274" spans="2:4">
+      <c r="C274" t="s">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="275" spans="2:4">
+      <c r="C275" t="s">
+        <v>3963</v>
+      </c>
+    </row>
+    <row r="277" spans="2:4">
+      <c r="B277" s="3" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="278" spans="2:4">
+      <c r="C278" t="s">
+        <v>3951</v>
+      </c>
+    </row>
+    <row r="280" spans="2:4">
+      <c r="C280" s="3" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="281" spans="2:4">
+      <c r="D281" t="s">
+        <v>3966</v>
+      </c>
+    </row>
+    <row r="283" spans="2:4">
+      <c r="B283" s="3" t="s">
+        <v>3967</v>
+      </c>
+    </row>
+    <row r="284" spans="2:4">
+      <c r="C284" t="s">
+        <v>3968</v>
+      </c>
+    </row>
+    <row r="286" spans="2:4">
+      <c r="D286" t="s">
+        <v>3969</v>
+      </c>
+    </row>
+    <row r="288" spans="2:4">
+      <c r="C288" t="s">
+        <v>3970</v>
+      </c>
+    </row>
+    <row r="290" spans="2:4">
+      <c r="D290" t="s">
+        <v>3971</v>
+      </c>
+    </row>
+    <row r="292" spans="2:4">
+      <c r="B292" s="3" t="s">
+        <v>3972</v>
+      </c>
+    </row>
+    <row r="294" spans="2:4">
+      <c r="C294" t="s">
+        <v>3973</v>
+      </c>
+    </row>
+    <row r="296" spans="2:4">
+      <c r="C296" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="297" spans="2:4">
+      <c r="D297" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="298" spans="2:4">
+      <c r="D298" t="s">
+        <v>3976</v>
+      </c>
+    </row>
+    <row r="299" spans="2:4">
+      <c r="D299" t="s">
+        <v>3977</v>
+      </c>
+    </row>
+    <row r="300" spans="2:4">
+      <c r="D300" t="s">
+        <v>3975</v>
+      </c>
+    </row>
+    <row r="301" spans="2:4">
+      <c r="D301" t="s">
+        <v>3979</v>
+      </c>
+    </row>
+    <row r="302" spans="2:4">
+      <c r="D302" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="304" spans="2:4">
+      <c r="D304" t="s">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="306" spans="2:3">
+      <c r="B306" s="3" t="s">
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="307" spans="2:3">
+      <c r="C307" t="s">
+        <v>3981</v>
       </c>
     </row>
   </sheetData>
@@ -54233,8 +54945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A431" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B446" sqref="B446"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Django 01.03.25.xlsx
+++ b/Django 01.03.25.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9804" tabRatio="858" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9804" tabRatio="858"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5475" uniqueCount="3982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5607" uniqueCount="4101">
   <si>
     <t>HTTP</t>
   </si>
@@ -43891,6 +43891,2275 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> in your HTML template</t>
+    </r>
+  </si>
+  <si>
+    <t>Quiz</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.  What is the primary purpose of Django’s </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ListView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>To display a list of objects from a queryset</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Which attribute in a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ListView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> specifies the model to be used for querying data?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. Which </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> would you override in a CBV </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to modify the context passed to the template</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. Which class-based view is best suited for handling </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>object updates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. In a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DetailView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, what method is responsible for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>retrieving the specific object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>get_object()</t>
+  </si>
+  <si>
+    <t>get_object() is the method that retrieves the specific instance of the model for a DetailView</t>
+  </si>
+  <si>
+    <t>You can override it if you need custom logic for fetching the object</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6. Which </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mixin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> would you use to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>require a user to be logged in before accessing a CB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>V?</t>
+    </r>
+  </si>
+  <si>
+    <t>LoginRequiredMixin</t>
+  </si>
+  <si>
+    <t>LoginRequiredMixin ensures that the user is authenticated before allowing access to the view. If the user is not logged in, they’ll be redirected to the login page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7. Where should </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LoginRequiredMixin be placed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the class definition?</t>
+    </r>
+  </si>
+  <si>
+    <t>Before the view class (e.g., class MyView(LoginRequiredMixin, View))</t>
+  </si>
+  <si>
+    <t>In Python's method resolution order (MRO), mixins like LoginRequiredMixin must come before the base view class (View, ListView, etc.) to work correctly</t>
+  </si>
+  <si>
+    <t>Otherwise, Django won't check the login requirement properly.</t>
+  </si>
+  <si>
+    <t>8. Which generic CBV is used to delete an object?</t>
+  </si>
+  <si>
+    <t>DeleteView is the correct class-based view used for deleting objects. It confirms the delete via a GET request and performs the deletion on POST.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9. Which </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> should be</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> overridden in CreateView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to customize what happens </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>after the form is successfully submitted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>form_valid() is called when the submitted form is valid.</t>
+  </si>
+  <si>
+    <t>You can override it to customize the behavior after saving the form (like logging, sending notifications, or modifying the instance)</t>
+  </si>
+  <si>
+    <t>10. Which CBV is best suited for rendering a template without any model or form logic?</t>
+  </si>
+  <si>
+    <t>TemplateView</t>
+  </si>
+  <si>
+    <t>TemplateView is the simplest CBV used to render a static template. It's perfect when you don't need to interact with models or forms and just want to pass context to a template.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11. Which </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is used in a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ListView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>customize the list of objects being displayed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>get_queryset()</t>
+  </si>
+  <si>
+    <t>get_queryset() is the method you override in a ListView when you want to customize which objects are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>This is useful for filtering based on user, status, or other criteria</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12. Which CBV would you use to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>both display a form and create a new object from it</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>CreateView is the go-to class for displaying a form and creating a new instance of a model upon submission</t>
+  </si>
+  <si>
+    <t>It handles both the form display and the save operation for you</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">13. What happens if you </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>don’t define success_url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CreateView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UpdateView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>The object’s get_absolute_url() method is used if available</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you don't define a success_url, Django will try to redirect to the result of the model instance's </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get_absolute_url()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> method. If that method is not defined, it will raise an error.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14. Which CBV would you use if you want to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>handle a simple redirect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>RedirectView</t>
+  </si>
+  <si>
+    <t>RedirectView is used when you want to redirect from one URL to another, often with optional parameters like permanent or temporary redirects</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">15. If you want to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>customize the form class used in a CreateView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, which attribute should you set?</t>
+    </r>
+  </si>
+  <si>
+    <t>form_class</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>To</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>use a custom form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CreateView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, you set the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>form_class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> attribute to your custom form</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>model attribute</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> specifies the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, but the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>form class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> controls which form is used.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16. What does the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> attribute in a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CreateView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UpdateView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do?</t>
+    </r>
+  </si>
+  <si>
+    <t>Lists the form fields to display and process</t>
+  </si>
+  <si>
+    <t>The fields attribute is a list or tuple of model field names that tells Django which fields to include in the automatically generated form</t>
+  </si>
+  <si>
+    <r>
+      <t>17. Which</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>handles the GET request</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in most Django CBVs?</t>
+    </r>
+  </si>
+  <si>
+    <t>get()</t>
+  </si>
+  <si>
+    <t>The get() method handles GET requests in Django CBVs. It usually prepares data and renders the response</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">post() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>handles POST requests</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dispatch()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> routes requests to the appropriate handler method</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18. What is the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>purpose of the dispatch()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> method in CBVs?</t>
+    </r>
+  </si>
+  <si>
+    <t>To direct HTTP methods (GET, POST, etc.) to their respective handlers</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dispatch()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is like the traffic controller in CBVs</t>
+    </r>
+  </si>
+  <si>
+    <t>It receives the HTTP request and routes it to the appropriate handler method based on the HTTP method (GET, POST, PUT, DELETE, etc.)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">19. Which CBV </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mixin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can you use t</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o add pagination support to a ListView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>MultipleObjectMixin</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Django’s </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ListView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> actually </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inherits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MultipleObjectMixin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, which provides </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>built-in support for pagination</t>
+    </r>
+  </si>
+  <si>
+    <t>PermissionRequiredMixin</t>
+  </si>
+  <si>
+    <t>PermissionRequiredMixin is used to restrict access to users who have specific permissions</t>
+  </si>
+  <si>
+    <t>It checks Django’s permission system and denies access if the user lacks the required permission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The model attribute tells Django which model to use when generating the default queryset. </t>
+  </si>
+  <si>
+    <t>If you don't specify a queryset explicitly, ListView uses model.objects.all()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get_context_data() is the method to override when you want to add or modify the context dictionary that is passed to the template. </t>
+  </si>
+  <si>
+    <t>It's commonly used to inject extra variables.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UpdateView is specifically designed to display a form for editing an existing object and saving the changes. </t>
+  </si>
+  <si>
+    <t>It automatically handles object retrieval and form saving logic</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20. If you want to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>limit access to a CBV to users with a specific permission</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, which mixin should you use?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21. Which </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> would you </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>override</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DetailView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if you need </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to change how the object is retrieved</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>In a DetailView, get_object() is the method responsible for retrieving the single object that will be displayed</t>
+  </si>
+  <si>
+    <t>You override it if you want custom logic for selecting the object</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">22. Which </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>attribute</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in a CBV defines the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name used in the template for the object or list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>context_object_name</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you don’t set it, Django uses default names like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>object_list</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>context_object_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> attribute sets the name of the object or list as it appears in the template context</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">23. Which CBV would you use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to handle a form without directly tying it to a model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FormView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is designed to work with regular Django forms that are not tied to models.</t>
+    </r>
+  </si>
+  <si>
+    <t>You use it when you need to process forms like contact forms, search forms, or any other custom logic.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">24. Which </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> would you override in FormView </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to handle valid form submissions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>form_valid() is the method you override in FormView (and CreateView/UpdateView) to define what happens when the submitted form is valid</t>
+  </si>
+  <si>
+    <t>like saving data, sending emails, or redirecting</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">25. If you </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>override get_queryset()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ListView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, what must the method </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>A queryset</t>
+  </si>
+  <si>
+    <t>The get_queryset() method must return a queryset, which the ListView uses to retrieve and display the list of objects.</t>
+  </si>
+  <si>
+    <t>Without it, the view won’t know what data to show.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">26. Which </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>attribute</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do you set in a CBV </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to specify the HTML file used to render the response</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>template_name</t>
+  </si>
+  <si>
+    <t>The template_name attribute tells Django which HTML file to use for rendering the response.</t>
+  </si>
+  <si>
+    <t>If you don’t set it, Django tries to infer the template based on the model and view class.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">27. Which </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mixin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> allows you to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>run custom logic to decide whether a user has access to a CBV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>UserPassesTestMixin</t>
+  </si>
+  <si>
+    <t>UserPassesTestMixin lets you write custom logic to determine whether a user can access the view by overriding the test_func() method</t>
+  </si>
+  <si>
+    <t>It’s useful for complex access control rules beyond just permissions</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">28. In </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CreateView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, which method </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>saves the form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>creates the new object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>form_valid() handles saving the form when it passes validation</t>
+  </si>
+  <si>
+    <t>It calls form.save() internally and usually redirects to success_url or the object’s get_absolute_url()</t>
+  </si>
+  <si>
+    <t>29. Which HTTP method is handled by post() in CBVs?</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>The post() method handles HTTP POST requests, typically used when submitting forms or sending data to the server</t>
+  </si>
+  <si>
+    <t>library/book_detail.html</t>
+  </si>
+  <si>
+    <t>Django's DetailView uses the default template pattern:</t>
+  </si>
+  <si>
+    <t>&lt;app_label&gt;/&lt;model_name&gt;_detail.html</t>
+  </si>
+  <si>
+    <t>So if your app is library and your model is Book, the default template is library/book_detail.html</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">30. What is the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>default template name pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DetailView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of a model named Book in an app called library?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">31. Which </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DeleteView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> actually </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>performs the deletion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>The delete() method in DeleteView performs the actual deletion of the object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delete() </t>
+  </si>
+  <si>
+    <t>It's triggered on a POST request and usually redirects to the success_url afterward</t>
+  </si>
+  <si>
+    <t>32. Which mixin lets you specify a custom test condition based on user attributes, such as checking if a user is a staff member?</t>
+  </si>
+  <si>
+    <t>UserPassesTestMixin allows you to define a custom test in the test_func() method, such as checking if self.request.user.is_staff</t>
+  </si>
+  <si>
+    <t>It's ideal for access logic based on user attributes.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">33. Which CBV would you use to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>process a form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>redirect the user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, but </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>without saving any model instance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>FormView is used for processing forms that aren’t tied to a model, such as search forms or contact forms</t>
+  </si>
+  <si>
+    <t>It handles validation and redirects on success but doesn’t save model instances unless you code that yourself.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">34. Which method in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UpdateView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fetches</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>object to be edited</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>get_object() is the method used by UpdateView to fetch the existing instance that the user will edit.</t>
+  </si>
+  <si>
+    <t>You can override it for custom lookup logic, like filtering by the logged-in user.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">35. What does </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">success_url </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">define in views like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CreateView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UpdateView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DeleteView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>The URL to redirect to after successful form submission</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>success_url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tells the view where to redirect the user after the form is successfully submitted and processed (such as after creating, updating, or deleting an object).</t>
     </r>
   </si>
 </sst>
@@ -43898,12 +46167,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="84">
+  <fonts count="86">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -44541,6 +46818,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF179A77"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -44749,74 +47034,74 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="46" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="46" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="21" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="21" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="46" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="46" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -44826,61 +47111,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="21" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="21" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -44890,8 +47180,8 @@
   <colors>
     <mruColors>
       <color rgb="FFA47A20"/>
+      <color rgb="FF179A77"/>
       <color rgb="FF7D7DFF"/>
-      <color rgb="FF179A77"/>
       <color rgb="FFA626A4"/>
       <color rgb="FFDA7BB9"/>
       <color rgb="FFFF33CC"/>
@@ -45718,9 +48008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:H63"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -47253,10 +49541,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F307"/>
+  <dimension ref="A1:F476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D258" sqref="D258"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -48424,14 +50712,674 @@
         <v>3978</v>
       </c>
     </row>
-    <row r="306" spans="2:3">
+    <row r="306" spans="1:3">
       <c r="B306" s="3" t="s">
         <v>3980</v>
       </c>
     </row>
-    <row r="307" spans="2:3">
+    <row r="307" spans="1:3">
       <c r="C307" t="s">
         <v>3981</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="3" t="s">
+        <v>3982</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="B311" t="s">
+        <v>3983</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="C312" t="s">
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="B314" t="s">
+        <v>3985</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="C315" s="114" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="C316" t="s">
+        <v>4042</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="C317" t="s">
+        <v>4043</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="B319" t="s">
+        <v>3986</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="C320" s="113" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="321" spans="2:3">
+      <c r="C321" t="s">
+        <v>4044</v>
+      </c>
+    </row>
+    <row r="322" spans="2:3">
+      <c r="C322" t="s">
+        <v>4045</v>
+      </c>
+    </row>
+    <row r="324" spans="2:3">
+      <c r="B324" t="s">
+        <v>3987</v>
+      </c>
+    </row>
+    <row r="325" spans="2:3">
+      <c r="C325" t="s">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3">
+      <c r="C326" t="s">
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="327" spans="2:3">
+      <c r="C327" t="s">
+        <v>4047</v>
+      </c>
+    </row>
+    <row r="329" spans="2:3">
+      <c r="B329" t="s">
+        <v>3988</v>
+      </c>
+    </row>
+    <row r="330" spans="2:3">
+      <c r="C330" s="113" t="s">
+        <v>3989</v>
+      </c>
+    </row>
+    <row r="331" spans="2:3">
+      <c r="C331" s="116" t="s">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="332" spans="2:3">
+      <c r="C332" t="s">
+        <v>3991</v>
+      </c>
+    </row>
+    <row r="334" spans="2:3">
+      <c r="B334" t="s">
+        <v>3992</v>
+      </c>
+    </row>
+    <row r="335" spans="2:3">
+      <c r="C335" t="s">
+        <v>3993</v>
+      </c>
+    </row>
+    <row r="336" spans="2:3">
+      <c r="C336" t="s">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="338" spans="2:3">
+      <c r="B338" t="s">
+        <v>3995</v>
+      </c>
+    </row>
+    <row r="339" spans="2:3">
+      <c r="C339" t="s">
+        <v>3996</v>
+      </c>
+    </row>
+    <row r="340" spans="2:3">
+      <c r="C340" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="341" spans="2:3">
+      <c r="C341" t="s">
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="343" spans="2:3">
+      <c r="B343" t="s">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="344" spans="2:3">
+      <c r="C344" t="s">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="345" spans="2:3">
+      <c r="C345" t="s">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="347" spans="2:3">
+      <c r="B347" t="s">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="348" spans="2:3">
+      <c r="C348" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="349" spans="2:3">
+      <c r="C349" t="s">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="350" spans="2:3">
+      <c r="C350" t="s">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="352" spans="2:3">
+      <c r="B352" t="s">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="353" spans="2:3">
+      <c r="C353" t="s">
+        <v>4005</v>
+      </c>
+    </row>
+    <row r="354" spans="2:3">
+      <c r="C354" t="s">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="356" spans="2:3">
+      <c r="B356" t="s">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="357" spans="2:3">
+      <c r="C357" t="s">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="358" spans="2:3">
+      <c r="C358" t="s">
+        <v>4009</v>
+      </c>
+    </row>
+    <row r="359" spans="2:3">
+      <c r="C359" t="s">
+        <v>4010</v>
+      </c>
+    </row>
+    <row r="361" spans="2:3">
+      <c r="B361" t="s">
+        <v>4011</v>
+      </c>
+    </row>
+    <row r="362" spans="2:3">
+      <c r="C362" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="363" spans="2:3">
+      <c r="C363" t="s">
+        <v>4012</v>
+      </c>
+    </row>
+    <row r="364" spans="2:3">
+      <c r="C364" t="s">
+        <v>4013</v>
+      </c>
+    </row>
+    <row r="366" spans="2:3">
+      <c r="B366" t="s">
+        <v>4014</v>
+      </c>
+    </row>
+    <row r="367" spans="2:3">
+      <c r="C367" t="s">
+        <v>4015</v>
+      </c>
+    </row>
+    <row r="368" spans="2:3">
+      <c r="C368" t="s">
+        <v>4016</v>
+      </c>
+    </row>
+    <row r="371" spans="2:3">
+      <c r="B371" t="s">
+        <v>4017</v>
+      </c>
+    </row>
+    <row r="372" spans="2:3">
+      <c r="C372" t="s">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="373" spans="2:3">
+      <c r="C373" t="s">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="375" spans="2:3">
+      <c r="B375" t="s">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="376" spans="2:3">
+      <c r="C376" t="s">
+        <v>4021</v>
+      </c>
+    </row>
+    <row r="377" spans="2:3">
+      <c r="C377" s="115" t="s">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="378" spans="2:3">
+      <c r="C378" t="s">
+        <v>4023</v>
+      </c>
+    </row>
+    <row r="380" spans="2:3">
+      <c r="B380" t="s">
+        <v>4024</v>
+      </c>
+    </row>
+    <row r="381" spans="2:3">
+      <c r="C381" t="s">
+        <v>4025</v>
+      </c>
+    </row>
+    <row r="382" spans="2:3">
+      <c r="C382" t="s">
+        <v>4026</v>
+      </c>
+    </row>
+    <row r="384" spans="2:3">
+      <c r="B384" t="s">
+        <v>4027</v>
+      </c>
+    </row>
+    <row r="385" spans="2:3">
+      <c r="C385" s="113" t="s">
+        <v>4028</v>
+      </c>
+    </row>
+    <row r="386" spans="2:3">
+      <c r="C386" t="s">
+        <v>4029</v>
+      </c>
+    </row>
+    <row r="387" spans="2:3">
+      <c r="C387" s="115" t="s">
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="388" spans="2:3">
+      <c r="C388" s="115" t="s">
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="390" spans="2:3">
+      <c r="B390" t="s">
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="391" spans="2:3">
+      <c r="C391" t="s">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="392" spans="2:3">
+      <c r="C392" s="115" t="s">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="393" spans="2:3">
+      <c r="C393" t="s">
+        <v>4035</v>
+      </c>
+    </row>
+    <row r="395" spans="2:3">
+      <c r="B395" t="s">
+        <v>4036</v>
+      </c>
+    </row>
+    <row r="396" spans="2:3">
+      <c r="C396" t="s">
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="397" spans="2:3">
+      <c r="C397" t="s">
+        <v>4038</v>
+      </c>
+    </row>
+    <row r="399" spans="2:3">
+      <c r="B399" t="s">
+        <v>4048</v>
+      </c>
+    </row>
+    <row r="400" spans="2:3">
+      <c r="C400" t="s">
+        <v>4039</v>
+      </c>
+    </row>
+    <row r="401" spans="2:3">
+      <c r="C401" t="s">
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="402" spans="2:3">
+      <c r="C402" t="s">
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="404" spans="2:3">
+      <c r="B404" t="s">
+        <v>4049</v>
+      </c>
+    </row>
+    <row r="405" spans="2:3">
+      <c r="C405" t="s">
+        <v>3989</v>
+      </c>
+    </row>
+    <row r="406" spans="2:3">
+      <c r="C406" t="s">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="407" spans="2:3">
+      <c r="C407" t="s">
+        <v>4051</v>
+      </c>
+    </row>
+    <row r="409" spans="2:3">
+      <c r="B409" t="s">
+        <v>4052</v>
+      </c>
+    </row>
+    <row r="410" spans="2:3">
+      <c r="C410" t="s">
+        <v>4053</v>
+      </c>
+    </row>
+    <row r="411" spans="2:3">
+      <c r="C411" t="s">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="412" spans="2:3">
+      <c r="C412" t="s">
+        <v>4054</v>
+      </c>
+    </row>
+    <row r="414" spans="2:3">
+      <c r="B414" t="s">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="415" spans="2:3">
+      <c r="C415" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="416" spans="2:3">
+      <c r="C416" s="115" t="s">
+        <v>4057</v>
+      </c>
+    </row>
+    <row r="417" spans="2:3">
+      <c r="C417" t="s">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="419" spans="2:3">
+      <c r="B419" t="s">
+        <v>4059</v>
+      </c>
+    </row>
+    <row r="420" spans="2:3">
+      <c r="C420" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="421" spans="2:3">
+      <c r="C421" t="s">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="422" spans="2:3">
+      <c r="C422" t="s">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="424" spans="2:3">
+      <c r="B424" t="s">
+        <v>4062</v>
+      </c>
+    </row>
+    <row r="425" spans="2:3">
+      <c r="C425" t="s">
+        <v>4063</v>
+      </c>
+    </row>
+    <row r="426" spans="2:3">
+      <c r="C426" t="s">
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="427" spans="2:3">
+      <c r="C427" t="s">
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="429" spans="2:3">
+      <c r="B429" t="s">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="430" spans="2:3">
+      <c r="C430" t="s">
+        <v>4067</v>
+      </c>
+    </row>
+    <row r="431" spans="2:3">
+      <c r="C431" t="s">
+        <v>4068</v>
+      </c>
+    </row>
+    <row r="432" spans="2:3">
+      <c r="C432" t="s">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="434" spans="2:3">
+      <c r="B434" t="s">
+        <v>4070</v>
+      </c>
+    </row>
+    <row r="435" spans="2:3">
+      <c r="C435" t="s">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="436" spans="2:3">
+      <c r="C436" t="s">
+        <v>4072</v>
+      </c>
+    </row>
+    <row r="437" spans="2:3">
+      <c r="C437" t="s">
+        <v>4073</v>
+      </c>
+    </row>
+    <row r="439" spans="2:3">
+      <c r="B439" t="s">
+        <v>4074</v>
+      </c>
+    </row>
+    <row r="440" spans="2:3">
+      <c r="C440" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="441" spans="2:3">
+      <c r="C441" t="s">
+        <v>4075</v>
+      </c>
+    </row>
+    <row r="442" spans="2:3">
+      <c r="C442" t="s">
+        <v>4076</v>
+      </c>
+    </row>
+    <row r="444" spans="2:3">
+      <c r="B444" t="s">
+        <v>4077</v>
+      </c>
+    </row>
+    <row r="445" spans="2:3">
+      <c r="C445" t="s">
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="446" spans="2:3">
+      <c r="C446" t="s">
+        <v>4079</v>
+      </c>
+    </row>
+    <row r="448" spans="2:3">
+      <c r="B448" t="s">
+        <v>4084</v>
+      </c>
+    </row>
+    <row r="449" spans="2:4">
+      <c r="C449" t="s">
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="450" spans="2:4">
+      <c r="C450" t="s">
+        <v>4081</v>
+      </c>
+    </row>
+    <row r="451" spans="2:4">
+      <c r="D451" t="s">
+        <v>4082</v>
+      </c>
+    </row>
+    <row r="452" spans="2:4">
+      <c r="C452" t="s">
+        <v>4083</v>
+      </c>
+    </row>
+    <row r="454" spans="2:4">
+      <c r="B454" t="s">
+        <v>4085</v>
+      </c>
+    </row>
+    <row r="455" spans="2:4">
+      <c r="C455" t="s">
+        <v>4087</v>
+      </c>
+    </row>
+    <row r="456" spans="2:4">
+      <c r="C456" t="s">
+        <v>4086</v>
+      </c>
+    </row>
+    <row r="457" spans="2:4">
+      <c r="C457" t="s">
+        <v>4088</v>
+      </c>
+    </row>
+    <row r="459" spans="2:4">
+      <c r="B459" t="s">
+        <v>4089</v>
+      </c>
+    </row>
+    <row r="460" spans="2:4">
+      <c r="C460" t="s">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="461" spans="2:4">
+      <c r="C461" t="s">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="462" spans="2:4">
+      <c r="C462" t="s">
+        <v>4091</v>
+      </c>
+    </row>
+    <row r="464" spans="2:4">
+      <c r="B464" t="s">
+        <v>4092</v>
+      </c>
+    </row>
+    <row r="465" spans="2:3">
+      <c r="C465" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="466" spans="2:3">
+      <c r="C466" t="s">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="467" spans="2:3">
+      <c r="C467" t="s">
+        <v>4094</v>
+      </c>
+    </row>
+    <row r="469" spans="2:3">
+      <c r="B469" t="s">
+        <v>4095</v>
+      </c>
+    </row>
+    <row r="470" spans="2:3">
+      <c r="C470" t="s">
+        <v>3989</v>
+      </c>
+    </row>
+    <row r="471" spans="2:3">
+      <c r="C471" t="s">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="472" spans="2:3">
+      <c r="C472" t="s">
+        <v>4097</v>
+      </c>
+    </row>
+    <row r="474" spans="2:3">
+      <c r="B474" t="s">
+        <v>4098</v>
+      </c>
+    </row>
+    <row r="475" spans="2:3">
+      <c r="C475" t="s">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="476" spans="2:3">
+      <c r="C476" s="117" t="s">
+        <v>4100</v>
       </c>
     </row>
   </sheetData>
@@ -60830,8 +63778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N409"/>
   <sheetViews>
-    <sheetView topLeftCell="A360" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D244" sqref="D244"/>
+    <sheetView topLeftCell="A351" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C378" sqref="C378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Django 01.03.25.xlsx
+++ b/Django 01.03.25.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9804" tabRatio="858"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9804" tabRatio="858" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5607" uniqueCount="4101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5662" uniqueCount="4146">
   <si>
     <t>HTTP</t>
   </si>
@@ -46161,6 +46161,722 @@
       </rPr>
       <t xml:space="preserve"> tells the view where to redirect the user after the form is successfully submitted and processed (such as after creating, updating, or deleting an object).</t>
     </r>
+  </si>
+  <si>
+    <t>Exampled views</t>
+  </si>
+  <si>
+    <t>from django.contrib.auth.models import User  # Import User model</t>
+  </si>
+  <si>
+    <t>from django.utils import timezone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        form.instance.author = self.request.user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    template_name = 'post_update.html'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        post = self.get_object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return self.request.user == post.author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    template_name = 'post_confirm_delete.html'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    success_url = reverse_lazy('post-list')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        post = self.get_object()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PostListView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ListView):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PostDetailView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(DetailView):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PostCreateView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(LoginRequiredMixin, CreateView):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PostUpdateView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(LoginRequiredMixin, UserPassesTestMixin, UpdateView):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PostDeleteView</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(LoginRequiredMixin, UserPassesTestMixin, DeleteView):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Post</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(models.Model):  # Add inheritance from models.Model</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    def </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>test_func</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(self):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>().form_valid(form)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = models.CharField(max_length=100)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>content</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = models.TextField()  # Use TextField for longer content</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>author</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = models.ForeignKey(User, on_delete=models.CASCADE)  # Add on_delete</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;class '__main__.Post'&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Post</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Post</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>template_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 'post_list.html'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>context_object_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 'posts'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>template_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 'post_detail.html'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>template_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 'post_create.html'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDA7BB9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fields</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = ['title', 'content']</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    def </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>form_valid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, form):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>created_at</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = models.DateTimeField(default=timezone.now)  # Add default timestamp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    def </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>__str__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF179A77"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>title</t>
+    </r>
+  </si>
+  <si>
+    <t>LoginRequiredMixin prevents unauthenticated users from accessing this view</t>
+  </si>
+  <si>
+    <t>If the user is not logged in, they’ll be redirected to the login page</t>
+  </si>
+  <si>
+    <t>CreateView handles form display, validation, and saving a new object</t>
+  </si>
+  <si>
+    <t>It's built to work with Django forms or model forms.</t>
+  </si>
+  <si>
+    <t>This method runs after the user submits the form and it passes validation</t>
+  </si>
+  <si>
+    <t>This line sets the author field manually, since it’s not in the form.</t>
+  </si>
+  <si>
+    <t>form.instance is the unsaved Post object created from the form</t>
+  </si>
+  <si>
+    <t>We assign the logged-in user (self.request.user) to author</t>
+  </si>
+  <si>
+    <t>This calls the parent form_valid() method, which</t>
+  </si>
+  <si>
+    <t>Saves the object to the database.</t>
+  </si>
+  <si>
+    <t>Redirects the user to the newly created post’s detail page (using get_absolute_url() if defined).</t>
+  </si>
+  <si>
+    <t>password = 1234</t>
   </si>
 </sst>
 </file>
@@ -46173,14 +46889,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -46826,6 +47534,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDA7BB9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -47037,71 +47753,71 @@
   <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="46" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="46" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="21" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="21" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="46" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="46" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -47111,65 +47827,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="21" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="21" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -47179,12 +47895,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF179A77"/>
+      <color rgb="FFFF33CC"/>
+      <color rgb="FFDA7BB9"/>
       <color rgb="FFA47A20"/>
-      <color rgb="FF179A77"/>
       <color rgb="FF7D7DFF"/>
       <color rgb="FFA626A4"/>
-      <color rgb="FFDA7BB9"/>
-      <color rgb="FFFF33CC"/>
       <color rgb="FFCC9900"/>
       <color rgb="FFFF7F50"/>
       <color rgb="FF000000"/>
@@ -47556,11 +48272,11 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>33337</xdr:colOff>
       <xdr:row>226</xdr:row>
-      <xdr:rowOff>164209</xdr:rowOff>
+      <xdr:rowOff>52552</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>191097</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>474743</xdr:colOff>
       <xdr:row>227</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -47575,7 +48291,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -47586,8 +48302,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5076825" y="41064559"/>
-          <a:ext cx="1376960" cy="169166"/>
+          <a:off x="5078303" y="41620966"/>
+          <a:ext cx="2270206" cy="283779"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -47595,7 +48311,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -47604,6 +48320,53 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>105103</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>42042</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>136634</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>94593</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3930869" y="7767145"/>
+          <a:ext cx="1250731" cy="420414"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -47635,7 +48398,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -47655,7 +48418,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -48008,7 +48771,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -48039,7 +48804,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.2" customHeight="1">
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="86" t="s">
         <v>558</v>
       </c>
       <c r="D4" s="56" t="s">
@@ -49541,7 +50306,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F476"/>
+  <dimension ref="A1:L537"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
@@ -50743,7 +51508,7 @@
       </c>
     </row>
     <row r="315" spans="1:3">
-      <c r="C315" s="114" t="s">
+      <c r="C315" s="112" t="s">
         <v>1239</v>
       </c>
     </row>
@@ -50763,7 +51528,7 @@
       </c>
     </row>
     <row r="320" spans="1:3">
-      <c r="C320" s="113" t="s">
+      <c r="C320" s="111" t="s">
         <v>3092</v>
       </c>
     </row>
@@ -50803,12 +51568,12 @@
       </c>
     </row>
     <row r="330" spans="2:3">
-      <c r="C330" s="113" t="s">
+      <c r="C330" s="111" t="s">
         <v>3989</v>
       </c>
     </row>
     <row r="331" spans="2:3">
-      <c r="C331" s="116" t="s">
+      <c r="C331" s="114" t="s">
         <v>3990</v>
       </c>
     </row>
@@ -50983,7 +51748,7 @@
       </c>
     </row>
     <row r="377" spans="2:3">
-      <c r="C377" s="115" t="s">
+      <c r="C377" s="113" t="s">
         <v>4022</v>
       </c>
     </row>
@@ -51013,7 +51778,7 @@
       </c>
     </row>
     <row r="385" spans="2:3">
-      <c r="C385" s="113" t="s">
+      <c r="C385" s="111" t="s">
         <v>4028</v>
       </c>
     </row>
@@ -51023,12 +51788,12 @@
       </c>
     </row>
     <row r="387" spans="2:3">
-      <c r="C387" s="115" t="s">
+      <c r="C387" s="113" t="s">
         <v>4030</v>
       </c>
     </row>
     <row r="388" spans="2:3">
-      <c r="C388" s="115" t="s">
+      <c r="C388" s="113" t="s">
         <v>4031</v>
       </c>
     </row>
@@ -51043,7 +51808,7 @@
       </c>
     </row>
     <row r="392" spans="2:3">
-      <c r="C392" s="115" t="s">
+      <c r="C392" s="113" t="s">
         <v>4034</v>
       </c>
     </row>
@@ -51138,7 +51903,7 @@
       </c>
     </row>
     <row r="416" spans="2:3">
-      <c r="C416" s="115" t="s">
+      <c r="C416" s="113" t="s">
         <v>4057</v>
       </c>
     </row>
@@ -51378,9 +52143,713 @@
       </c>
     </row>
     <row r="476" spans="2:3">
-      <c r="C476" s="117" t="s">
+      <c r="C476" s="115" t="s">
         <v>4100</v>
       </c>
+    </row>
+    <row r="481" spans="1:10">
+      <c r="A481" s="3" t="s">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="483" spans="1:10">
+      <c r="B483" s="103" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C483" s="26"/>
+      <c r="D483" s="26"/>
+      <c r="E483" s="26"/>
+      <c r="F483" s="26"/>
+      <c r="G483" s="26"/>
+      <c r="H483" s="26"/>
+      <c r="I483" s="26"/>
+      <c r="J483" s="27"/>
+    </row>
+    <row r="484" spans="1:10">
+      <c r="B484" s="49"/>
+      <c r="C484" s="8"/>
+      <c r="D484" s="8"/>
+      <c r="E484" s="8"/>
+      <c r="F484" s="8"/>
+      <c r="G484" s="8"/>
+      <c r="H484" s="8"/>
+      <c r="I484" s="8"/>
+      <c r="J484" s="50"/>
+    </row>
+    <row r="485" spans="1:10">
+      <c r="B485" s="49" t="s">
+        <v>625</v>
+      </c>
+      <c r="C485" s="8"/>
+      <c r="D485" s="8"/>
+      <c r="E485" s="8"/>
+      <c r="F485" s="8"/>
+      <c r="G485" s="8"/>
+      <c r="H485" s="8"/>
+      <c r="I485" s="8"/>
+      <c r="J485" s="50"/>
+    </row>
+    <row r="486" spans="1:10">
+      <c r="B486" s="49" t="s">
+        <v>4102</v>
+      </c>
+      <c r="C486" s="8"/>
+      <c r="D486" s="8"/>
+      <c r="E486" s="8"/>
+      <c r="F486" s="8"/>
+      <c r="G486" s="8"/>
+      <c r="H486" s="8"/>
+      <c r="I486" s="8"/>
+      <c r="J486" s="50"/>
+    </row>
+    <row r="487" spans="1:10">
+      <c r="B487" s="49" t="s">
+        <v>4103</v>
+      </c>
+      <c r="C487" s="8"/>
+      <c r="D487" s="8"/>
+      <c r="E487" s="8"/>
+      <c r="F487" s="8"/>
+      <c r="G487" s="8"/>
+      <c r="H487" s="8"/>
+      <c r="I487" s="8"/>
+      <c r="J487" s="50"/>
+    </row>
+    <row r="488" spans="1:10">
+      <c r="B488" s="49"/>
+      <c r="C488" s="8"/>
+      <c r="D488" s="8"/>
+      <c r="E488" s="8"/>
+      <c r="F488" s="8"/>
+      <c r="G488" s="8"/>
+      <c r="H488" s="8"/>
+      <c r="I488" s="8"/>
+      <c r="J488" s="50"/>
+    </row>
+    <row r="489" spans="1:10">
+      <c r="B489" s="49" t="s">
+        <v>4116</v>
+      </c>
+      <c r="C489" s="8"/>
+      <c r="D489" s="8"/>
+      <c r="E489" s="8"/>
+      <c r="F489" s="8"/>
+      <c r="G489" s="8"/>
+      <c r="H489" s="8"/>
+      <c r="I489" s="8"/>
+      <c r="J489" s="50"/>
+    </row>
+    <row r="490" spans="1:10">
+      <c r="B490" s="49" t="s">
+        <v>4119</v>
+      </c>
+      <c r="C490" s="8"/>
+      <c r="D490" s="8"/>
+      <c r="E490" s="8"/>
+      <c r="F490" s="8"/>
+      <c r="G490" s="8"/>
+      <c r="H490" s="8"/>
+      <c r="I490" s="8"/>
+      <c r="J490" s="50"/>
+    </row>
+    <row r="491" spans="1:10">
+      <c r="B491" s="49" t="s">
+        <v>4120</v>
+      </c>
+      <c r="C491" s="8"/>
+      <c r="D491" s="8"/>
+      <c r="E491" s="8"/>
+      <c r="F491" s="8"/>
+      <c r="G491" s="8"/>
+      <c r="H491" s="8"/>
+      <c r="I491" s="8"/>
+      <c r="J491" s="50"/>
+    </row>
+    <row r="492" spans="1:10">
+      <c r="B492" s="49" t="s">
+        <v>4121</v>
+      </c>
+      <c r="C492" s="8"/>
+      <c r="D492" s="8"/>
+      <c r="E492" s="8"/>
+      <c r="F492" s="8"/>
+      <c r="G492" s="8"/>
+      <c r="H492" s="8"/>
+      <c r="I492" s="8"/>
+      <c r="J492" s="50"/>
+    </row>
+    <row r="493" spans="1:10">
+      <c r="B493" s="49" t="s">
+        <v>4131</v>
+      </c>
+      <c r="C493" s="8"/>
+      <c r="D493" s="8"/>
+      <c r="E493" s="8"/>
+      <c r="F493" s="8"/>
+      <c r="G493" s="8"/>
+      <c r="H493" s="8"/>
+      <c r="I493" s="8"/>
+      <c r="J493" s="50"/>
+    </row>
+    <row r="494" spans="1:10">
+      <c r="B494" s="49"/>
+      <c r="C494" s="8"/>
+      <c r="D494" s="8"/>
+      <c r="E494" s="8"/>
+      <c r="F494" s="8"/>
+      <c r="G494" s="8"/>
+      <c r="H494" s="8"/>
+      <c r="I494" s="8"/>
+      <c r="J494" s="50"/>
+    </row>
+    <row r="495" spans="1:10">
+      <c r="B495" s="49" t="s">
+        <v>4132</v>
+      </c>
+      <c r="C495" s="8"/>
+      <c r="D495" s="8"/>
+      <c r="E495" s="8"/>
+      <c r="F495" s="8"/>
+      <c r="G495" s="8"/>
+      <c r="H495" s="8"/>
+      <c r="I495" s="8"/>
+      <c r="J495" s="50"/>
+    </row>
+    <row r="496" spans="1:10">
+      <c r="B496" s="28" t="s">
+        <v>4133</v>
+      </c>
+      <c r="C496" s="29"/>
+      <c r="D496" s="29"/>
+      <c r="E496" s="29"/>
+      <c r="F496" s="29"/>
+      <c r="G496" s="29"/>
+      <c r="H496" s="29"/>
+      <c r="I496" s="29"/>
+      <c r="J496" s="30"/>
+    </row>
+    <row r="498" spans="2:12">
+      <c r="B498" s="103" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C498" s="26"/>
+      <c r="D498" s="26"/>
+      <c r="E498" s="26"/>
+      <c r="F498" s="26"/>
+      <c r="G498" s="26"/>
+      <c r="H498" s="26"/>
+      <c r="I498" s="26"/>
+      <c r="J498" s="27"/>
+    </row>
+    <row r="499" spans="2:12">
+      <c r="B499" s="49" t="s">
+        <v>4111</v>
+      </c>
+      <c r="C499" s="8"/>
+      <c r="D499" s="8"/>
+      <c r="E499" s="8"/>
+      <c r="F499" s="8"/>
+      <c r="G499" s="8"/>
+      <c r="H499" s="8"/>
+      <c r="I499" s="8"/>
+      <c r="J499" s="50"/>
+    </row>
+    <row r="500" spans="2:12">
+      <c r="B500" s="49" t="s">
+        <v>4123</v>
+      </c>
+      <c r="C500" s="8"/>
+      <c r="D500" s="8"/>
+      <c r="E500" s="8"/>
+      <c r="F500" s="8" t="s">
+        <v>4122</v>
+      </c>
+      <c r="G500" s="8"/>
+      <c r="H500" s="8"/>
+      <c r="I500" s="8"/>
+      <c r="J500" s="50"/>
+    </row>
+    <row r="501" spans="2:12">
+      <c r="B501" s="49" t="s">
+        <v>4125</v>
+      </c>
+      <c r="C501" s="8"/>
+      <c r="D501" s="8"/>
+      <c r="E501" s="8"/>
+      <c r="F501" s="8"/>
+      <c r="G501" s="8"/>
+      <c r="H501" s="8"/>
+      <c r="I501" s="8"/>
+      <c r="J501" s="50"/>
+    </row>
+    <row r="502" spans="2:12">
+      <c r="B502" s="49" t="s">
+        <v>4126</v>
+      </c>
+      <c r="C502" s="8"/>
+      <c r="D502" s="8"/>
+      <c r="E502" s="8"/>
+      <c r="F502" s="8"/>
+      <c r="G502" s="8"/>
+      <c r="H502" s="8"/>
+      <c r="I502" s="8"/>
+      <c r="J502" s="50"/>
+    </row>
+    <row r="503" spans="2:12">
+      <c r="B503" s="49"/>
+      <c r="C503" s="8"/>
+      <c r="D503" s="8"/>
+      <c r="E503" s="8"/>
+      <c r="F503" s="8"/>
+      <c r="G503" s="8"/>
+      <c r="H503" s="8"/>
+      <c r="I503" s="8"/>
+      <c r="J503" s="50"/>
+    </row>
+    <row r="504" spans="2:12">
+      <c r="B504" s="49" t="s">
+        <v>4112</v>
+      </c>
+      <c r="C504" s="8"/>
+      <c r="D504" s="8"/>
+      <c r="E504" s="8"/>
+      <c r="F504" s="8"/>
+      <c r="G504" s="8"/>
+      <c r="H504" s="8"/>
+      <c r="I504" s="8"/>
+      <c r="J504" s="50"/>
+    </row>
+    <row r="505" spans="2:12">
+      <c r="B505" s="49" t="s">
+        <v>4124</v>
+      </c>
+      <c r="C505" s="8"/>
+      <c r="D505" s="8"/>
+      <c r="E505" s="8"/>
+      <c r="F505" s="8"/>
+      <c r="G505" s="8"/>
+      <c r="H505" s="8"/>
+      <c r="I505" s="8"/>
+      <c r="J505" s="50"/>
+    </row>
+    <row r="506" spans="2:12">
+      <c r="B506" s="49" t="s">
+        <v>4127</v>
+      </c>
+      <c r="C506" s="8"/>
+      <c r="D506" s="8"/>
+      <c r="E506" s="8"/>
+      <c r="F506" s="8"/>
+      <c r="G506" s="8"/>
+      <c r="H506" s="8"/>
+      <c r="I506" s="8"/>
+      <c r="J506" s="50"/>
+    </row>
+    <row r="507" spans="2:12">
+      <c r="B507" s="49" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C507" s="8"/>
+      <c r="D507" s="8"/>
+      <c r="E507" s="8"/>
+      <c r="F507" s="8"/>
+      <c r="G507" s="8"/>
+      <c r="H507" s="8"/>
+      <c r="I507" s="8"/>
+      <c r="J507" s="50"/>
+    </row>
+    <row r="508" spans="2:12">
+      <c r="B508" s="49"/>
+      <c r="C508" s="8"/>
+      <c r="D508" s="8"/>
+      <c r="E508" s="8"/>
+      <c r="F508" s="8"/>
+      <c r="G508" s="8"/>
+      <c r="H508" s="8"/>
+      <c r="I508" s="8"/>
+      <c r="J508" s="50"/>
+    </row>
+    <row r="509" spans="2:12">
+      <c r="B509" s="49" t="s">
+        <v>4113</v>
+      </c>
+      <c r="C509" s="8"/>
+      <c r="D509" s="8"/>
+      <c r="E509" s="8"/>
+      <c r="F509" s="8"/>
+      <c r="G509" s="8"/>
+      <c r="H509" s="8"/>
+      <c r="J509" s="50"/>
+      <c r="L509" s="8" t="s">
+        <v>4134</v>
+      </c>
+    </row>
+    <row r="510" spans="2:12">
+      <c r="B510" s="49" t="s">
+        <v>4123</v>
+      </c>
+      <c r="C510" s="8"/>
+      <c r="D510" s="8"/>
+      <c r="E510" s="8"/>
+      <c r="F510" s="8"/>
+      <c r="G510" s="8"/>
+      <c r="H510" s="8"/>
+      <c r="J510" s="50"/>
+      <c r="L510" s="8" t="s">
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="511" spans="2:12">
+      <c r="B511" s="49" t="s">
+        <v>4128</v>
+      </c>
+      <c r="C511" s="8"/>
+      <c r="D511" s="8"/>
+      <c r="E511" s="8"/>
+      <c r="F511" s="8"/>
+      <c r="G511" s="8"/>
+      <c r="H511" s="8"/>
+      <c r="J511" s="50"/>
+      <c r="L511" s="8" t="s">
+        <v>4136</v>
+      </c>
+    </row>
+    <row r="512" spans="2:12">
+      <c r="B512" s="49" t="s">
+        <v>4129</v>
+      </c>
+      <c r="C512" s="8"/>
+      <c r="D512" s="8"/>
+      <c r="E512" s="8"/>
+      <c r="F512" s="8"/>
+      <c r="G512" s="8"/>
+      <c r="H512" s="8"/>
+      <c r="J512" s="50"/>
+      <c r="L512" s="116" t="s">
+        <v>4137</v>
+      </c>
+    </row>
+    <row r="513" spans="2:12">
+      <c r="B513" s="49"/>
+      <c r="C513" s="8"/>
+      <c r="D513" s="8"/>
+      <c r="E513" s="8"/>
+      <c r="F513" s="8"/>
+      <c r="G513" s="8"/>
+      <c r="H513" s="8"/>
+      <c r="I513" s="8"/>
+      <c r="J513" s="50"/>
+    </row>
+    <row r="514" spans="2:12">
+      <c r="B514" s="49" t="s">
+        <v>4130</v>
+      </c>
+      <c r="C514" s="8"/>
+      <c r="D514" s="8"/>
+      <c r="E514" s="8"/>
+      <c r="F514" s="8"/>
+      <c r="H514" s="8"/>
+      <c r="J514" s="50"/>
+      <c r="L514" s="116" t="s">
+        <v>4138</v>
+      </c>
+    </row>
+    <row r="515" spans="2:12">
+      <c r="B515" s="49" t="s">
+        <v>4104</v>
+      </c>
+      <c r="C515" s="8"/>
+      <c r="D515" s="8"/>
+      <c r="E515" s="8"/>
+      <c r="F515" s="8"/>
+      <c r="G515" s="8"/>
+      <c r="H515" s="8"/>
+      <c r="J515" s="50"/>
+      <c r="L515" s="116" t="s">
+        <v>4139</v>
+      </c>
+    </row>
+    <row r="516" spans="2:12">
+      <c r="B516" s="49" t="s">
+        <v>4118</v>
+      </c>
+      <c r="C516" s="8"/>
+      <c r="D516" s="8"/>
+      <c r="E516" s="8"/>
+      <c r="F516" s="8"/>
+      <c r="G516" s="8" t="s">
+        <v>4142</v>
+      </c>
+      <c r="H516" s="8"/>
+      <c r="J516" s="50"/>
+      <c r="L516" s="116" t="s">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="517" spans="2:12">
+      <c r="B517" s="49"/>
+      <c r="C517" s="8"/>
+      <c r="D517" s="8"/>
+      <c r="E517" s="8"/>
+      <c r="F517" s="8"/>
+      <c r="G517" s="8" t="s">
+        <v>4143</v>
+      </c>
+      <c r="H517" s="8"/>
+      <c r="J517" s="50"/>
+      <c r="L517" s="116" t="s">
+        <v>4141</v>
+      </c>
+    </row>
+    <row r="518" spans="2:12">
+      <c r="B518" s="49"/>
+      <c r="C518" s="8"/>
+      <c r="D518" s="8"/>
+      <c r="E518" s="8"/>
+      <c r="F518" s="8"/>
+      <c r="G518" s="8" t="s">
+        <v>4144</v>
+      </c>
+      <c r="H518" s="8"/>
+      <c r="I518" s="8"/>
+      <c r="J518" s="50"/>
+    </row>
+    <row r="519" spans="2:12">
+      <c r="B519" s="49" t="s">
+        <v>4114</v>
+      </c>
+      <c r="C519" s="8"/>
+      <c r="D519" s="8"/>
+      <c r="E519" s="8"/>
+      <c r="F519" s="8"/>
+      <c r="G519" s="8"/>
+      <c r="H519" s="8"/>
+      <c r="I519" s="8"/>
+      <c r="J519" s="50"/>
+    </row>
+    <row r="520" spans="2:12">
+      <c r="B520" s="49" t="s">
+        <v>4123</v>
+      </c>
+      <c r="C520" s="8"/>
+      <c r="D520" s="8"/>
+      <c r="E520" s="8"/>
+      <c r="F520" s="8"/>
+      <c r="G520" s="8"/>
+      <c r="H520" s="8"/>
+      <c r="I520" s="8"/>
+      <c r="J520" s="50"/>
+    </row>
+    <row r="521" spans="2:12">
+      <c r="B521" s="49" t="s">
+        <v>4105</v>
+      </c>
+      <c r="C521" s="8"/>
+      <c r="D521" s="8"/>
+      <c r="E521" s="8"/>
+      <c r="F521" s="8"/>
+      <c r="G521" s="8"/>
+      <c r="H521" s="8"/>
+      <c r="I521" s="8"/>
+      <c r="J521" s="50"/>
+    </row>
+    <row r="522" spans="2:12">
+      <c r="B522" s="49" t="s">
+        <v>3008</v>
+      </c>
+      <c r="C522" s="8"/>
+      <c r="D522" s="8"/>
+      <c r="E522" s="8"/>
+      <c r="F522" s="8"/>
+      <c r="G522" s="8"/>
+      <c r="H522" s="8"/>
+      <c r="I522" s="8"/>
+      <c r="J522" s="50"/>
+    </row>
+    <row r="523" spans="2:12">
+      <c r="B523" s="49"/>
+      <c r="C523" s="8"/>
+      <c r="D523" s="8"/>
+      <c r="E523" s="8"/>
+      <c r="F523" s="8"/>
+      <c r="G523" s="8"/>
+      <c r="H523" s="8"/>
+      <c r="I523" s="8"/>
+      <c r="J523" s="50"/>
+    </row>
+    <row r="524" spans="2:12">
+      <c r="B524" s="49" t="s">
+        <v>4117</v>
+      </c>
+      <c r="C524" s="8"/>
+      <c r="D524" s="8"/>
+      <c r="E524" s="8"/>
+      <c r="F524" s="8"/>
+      <c r="G524" s="8"/>
+      <c r="H524" s="8"/>
+      <c r="I524" s="8"/>
+      <c r="J524" s="50"/>
+    </row>
+    <row r="525" spans="2:12">
+      <c r="B525" s="49" t="s">
+        <v>4106</v>
+      </c>
+      <c r="C525" s="8"/>
+      <c r="D525" s="8"/>
+      <c r="E525" s="8"/>
+      <c r="F525" s="8"/>
+      <c r="G525" s="8"/>
+      <c r="H525" s="8"/>
+      <c r="I525" s="8"/>
+      <c r="J525" s="50"/>
+    </row>
+    <row r="526" spans="2:12">
+      <c r="B526" s="49" t="s">
+        <v>4107</v>
+      </c>
+      <c r="C526" s="8"/>
+      <c r="D526" s="8"/>
+      <c r="E526" s="8"/>
+      <c r="F526" s="8"/>
+      <c r="G526" s="8"/>
+      <c r="H526" s="8"/>
+      <c r="I526" s="8"/>
+      <c r="J526" s="50"/>
+    </row>
+    <row r="527" spans="2:12">
+      <c r="B527" s="49"/>
+      <c r="C527" s="8"/>
+      <c r="D527" s="8"/>
+      <c r="E527" s="8"/>
+      <c r="F527" s="8"/>
+      <c r="G527" s="8"/>
+      <c r="H527" s="8"/>
+      <c r="I527" s="8"/>
+      <c r="J527" s="50"/>
+    </row>
+    <row r="528" spans="2:12">
+      <c r="B528" s="49"/>
+      <c r="C528" s="8"/>
+      <c r="D528" s="8"/>
+      <c r="E528" s="8"/>
+      <c r="F528" s="8"/>
+      <c r="G528" s="8"/>
+      <c r="H528" s="8"/>
+      <c r="I528" s="8"/>
+      <c r="J528" s="50"/>
+    </row>
+    <row r="529" spans="2:10">
+      <c r="B529" s="49" t="s">
+        <v>4115</v>
+      </c>
+      <c r="C529" s="8"/>
+      <c r="D529" s="8"/>
+      <c r="E529" s="8"/>
+      <c r="F529" s="8"/>
+      <c r="G529" s="8"/>
+      <c r="H529" s="8"/>
+      <c r="I529" s="8"/>
+      <c r="J529" s="50"/>
+    </row>
+    <row r="530" spans="2:10">
+      <c r="B530" s="49" t="s">
+        <v>4123</v>
+      </c>
+      <c r="C530" s="8"/>
+      <c r="D530" s="8"/>
+      <c r="E530" s="8"/>
+      <c r="F530" s="8"/>
+      <c r="G530" s="8"/>
+      <c r="H530" s="8"/>
+      <c r="I530" s="8"/>
+      <c r="J530" s="50"/>
+    </row>
+    <row r="531" spans="2:10">
+      <c r="B531" s="49" t="s">
+        <v>4108</v>
+      </c>
+      <c r="C531" s="8"/>
+      <c r="D531" s="8"/>
+      <c r="E531" s="8"/>
+      <c r="F531" s="8"/>
+      <c r="G531" s="8"/>
+      <c r="H531" s="8"/>
+      <c r="I531" s="8"/>
+      <c r="J531" s="50"/>
+    </row>
+    <row r="532" spans="2:10">
+      <c r="B532" s="49" t="s">
+        <v>4109</v>
+      </c>
+      <c r="C532" s="8"/>
+      <c r="D532" s="8"/>
+      <c r="E532" s="8"/>
+      <c r="F532" s="8"/>
+      <c r="G532" s="8"/>
+      <c r="H532" s="8"/>
+      <c r="I532" s="8"/>
+      <c r="J532" s="50"/>
+    </row>
+    <row r="533" spans="2:10">
+      <c r="B533" s="49"/>
+      <c r="C533" s="8"/>
+      <c r="D533" s="8"/>
+      <c r="E533" s="8"/>
+      <c r="F533" s="8"/>
+      <c r="G533" s="8"/>
+      <c r="H533" s="8"/>
+      <c r="I533" s="8"/>
+      <c r="J533" s="50"/>
+    </row>
+    <row r="534" spans="2:10">
+      <c r="B534" s="49"/>
+      <c r="C534" s="8"/>
+      <c r="D534" s="8"/>
+      <c r="E534" s="8"/>
+      <c r="F534" s="8"/>
+      <c r="G534" s="8"/>
+      <c r="H534" s="8"/>
+      <c r="I534" s="8"/>
+      <c r="J534" s="50"/>
+    </row>
+    <row r="535" spans="2:10">
+      <c r="B535" s="49" t="s">
+        <v>4117</v>
+      </c>
+      <c r="C535" s="8"/>
+      <c r="D535" s="8"/>
+      <c r="E535" s="8"/>
+      <c r="F535" s="8"/>
+      <c r="G535" s="8"/>
+      <c r="H535" s="8"/>
+      <c r="I535" s="8"/>
+      <c r="J535" s="50"/>
+    </row>
+    <row r="536" spans="2:10">
+      <c r="B536" s="49" t="s">
+        <v>4110</v>
+      </c>
+      <c r="C536" s="8"/>
+      <c r="D536" s="8"/>
+      <c r="E536" s="8"/>
+      <c r="F536" s="8"/>
+      <c r="G536" s="8"/>
+      <c r="H536" s="8"/>
+      <c r="I536" s="8"/>
+      <c r="J536" s="50"/>
+    </row>
+    <row r="537" spans="2:10">
+      <c r="B537" s="28" t="s">
+        <v>4107</v>
+      </c>
+      <c r="C537" s="29"/>
+      <c r="D537" s="29"/>
+      <c r="E537" s="29"/>
+      <c r="F537" s="29"/>
+      <c r="G537" s="29"/>
+      <c r="H537" s="29"/>
+      <c r="I537" s="29"/>
+      <c r="J537" s="30"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -51589,41 +53058,41 @@
       <c r="B33" t="s">
         <v>3504</v>
       </c>
-      <c r="C33" s="97"/>
+      <c r="C33" s="95"/>
     </row>
     <row r="34" spans="1:3">
       <c r="B34" t="s">
         <v>3505</v>
       </c>
-      <c r="C34" s="97"/>
+      <c r="C34" s="95"/>
     </row>
     <row r="35" spans="1:3">
       <c r="B35" s="18" t="s">
         <v>3508</v>
       </c>
-      <c r="C35" s="97"/>
+      <c r="C35" s="95"/>
     </row>
     <row r="36" spans="1:3">
       <c r="B36" s="11" t="s">
         <v>3506</v>
       </c>
-      <c r="C36" s="97"/>
+      <c r="C36" s="95"/>
     </row>
     <row r="37" spans="1:3">
       <c r="B37" s="11" t="s">
         <v>3507</v>
       </c>
-      <c r="C37" s="97"/>
+      <c r="C37" s="95"/>
     </row>
     <row r="38" spans="1:3">
       <c r="B38" t="s">
         <v>444</v>
       </c>
-      <c r="C38" s="97"/>
+      <c r="C38" s="95"/>
     </row>
     <row r="39" spans="1:3">
       <c r="B39" s="18"/>
-      <c r="C39" s="97"/>
+      <c r="C39" s="95"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
@@ -52064,7 +53533,7 @@
       <c r="M142" s="4" t="s">
         <v>2751</v>
       </c>
-      <c r="N142" s="98" t="s">
+      <c r="N142" s="96" t="s">
         <v>2752</v>
       </c>
     </row>
@@ -52424,7 +53893,7 @@
       </c>
     </row>
     <row r="213" spans="1:6">
-      <c r="C213" s="99" t="s">
+      <c r="C213" s="97" t="s">
         <v>2762</v>
       </c>
     </row>
@@ -55488,8 +56957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H469"/>
   <sheetViews>
-    <sheetView topLeftCell="A383" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B396" sqref="B396"/>
+    <sheetView topLeftCell="A234" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C243" sqref="C243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -56699,17 +58168,17 @@
       </c>
     </row>
     <row r="291" spans="1:4">
-      <c r="C291" s="88" t="s">
+      <c r="C291" s="87" t="s">
         <v>2386</v>
       </c>
     </row>
     <row r="292" spans="1:4">
-      <c r="C292" s="88" t="s">
+      <c r="C292" s="87" t="s">
         <v>2387</v>
       </c>
     </row>
     <row r="293" spans="1:4">
-      <c r="C293" s="88"/>
+      <c r="C293" s="87"/>
     </row>
     <row r="294" spans="1:4">
       <c r="B294" t="s">
@@ -56717,12 +58186,12 @@
       </c>
     </row>
     <row r="295" spans="1:4">
-      <c r="C295" s="88" t="s">
+      <c r="C295" s="87" t="s">
         <v>2389</v>
       </c>
     </row>
     <row r="296" spans="1:4">
-      <c r="C296" s="88" t="s">
+      <c r="C296" s="87" t="s">
         <v>2390</v>
       </c>
     </row>
@@ -56732,32 +58201,32 @@
       </c>
     </row>
     <row r="299" spans="1:4">
-      <c r="C299" s="88" t="s">
+      <c r="C299" s="87" t="s">
         <v>2392</v>
       </c>
     </row>
     <row r="300" spans="1:4">
-      <c r="C300" s="88" t="s">
+      <c r="C300" s="87" t="s">
         <v>2393</v>
       </c>
     </row>
     <row r="301" spans="1:4">
-      <c r="D301" s="88" t="s">
+      <c r="D301" s="87" t="s">
         <v>2394</v>
       </c>
     </row>
     <row r="302" spans="1:4">
-      <c r="D302" s="88" t="s">
+      <c r="D302" s="87" t="s">
         <v>2395</v>
       </c>
     </row>
     <row r="303" spans="1:4">
-      <c r="D303" s="88" t="s">
+      <c r="D303" s="87" t="s">
         <v>2396</v>
       </c>
     </row>
     <row r="304" spans="1:4">
-      <c r="D304" s="88" t="s">
+      <c r="D304" s="87" t="s">
         <v>2397</v>
       </c>
     </row>
@@ -56767,12 +58236,12 @@
       </c>
     </row>
     <row r="307" spans="2:4">
-      <c r="C307" s="88" t="s">
+      <c r="C307" s="87" t="s">
         <v>2399</v>
       </c>
     </row>
     <row r="308" spans="2:4">
-      <c r="C308" s="88" t="s">
+      <c r="C308" s="87" t="s">
         <v>2400</v>
       </c>
     </row>
@@ -56782,12 +58251,12 @@
       </c>
     </row>
     <row r="311" spans="2:4">
-      <c r="C311" s="88" t="s">
+      <c r="C311" s="87" t="s">
         <v>2402</v>
       </c>
     </row>
     <row r="312" spans="2:4">
-      <c r="C312" s="88" t="s">
+      <c r="C312" s="87" t="s">
         <v>2403</v>
       </c>
     </row>
@@ -56797,12 +58266,12 @@
       </c>
     </row>
     <row r="315" spans="2:4">
-      <c r="C315" s="88" t="s">
+      <c r="C315" s="87" t="s">
         <v>2405</v>
       </c>
     </row>
     <row r="316" spans="2:4">
-      <c r="C316" s="88" t="s">
+      <c r="C316" s="87" t="s">
         <v>2406</v>
       </c>
     </row>
@@ -56852,12 +58321,12 @@
       </c>
     </row>
     <row r="329" spans="1:4">
-      <c r="C329" s="88" t="s">
+      <c r="C329" s="87" t="s">
         <v>2415</v>
       </c>
     </row>
     <row r="330" spans="1:4">
-      <c r="C330" s="88" t="s">
+      <c r="C330" s="87" t="s">
         <v>2416</v>
       </c>
     </row>
@@ -56877,17 +58346,17 @@
       </c>
     </row>
     <row r="335" spans="1:4">
-      <c r="C335" s="88" t="s">
+      <c r="C335" s="87" t="s">
         <v>2421</v>
       </c>
     </row>
     <row r="336" spans="1:4">
-      <c r="C336" s="88" t="s">
+      <c r="C336" s="87" t="s">
         <v>2420</v>
       </c>
     </row>
     <row r="337" spans="2:6">
-      <c r="C337" s="88" t="s">
+      <c r="C337" s="87" t="s">
         <v>2422</v>
       </c>
     </row>
@@ -56897,17 +58366,17 @@
       </c>
     </row>
     <row r="340" spans="2:6">
-      <c r="C340" s="88" t="s">
+      <c r="C340" s="87" t="s">
         <v>2424</v>
       </c>
     </row>
     <row r="341" spans="2:6">
-      <c r="C341" s="88" t="s">
+      <c r="C341" s="87" t="s">
         <v>2425</v>
       </c>
     </row>
     <row r="342" spans="2:6">
-      <c r="D342" s="88" t="s">
+      <c r="D342" s="87" t="s">
         <v>2426</v>
       </c>
     </row>
@@ -56917,7 +58386,7 @@
       </c>
     </row>
     <row r="344" spans="2:6">
-      <c r="D344" s="88" t="s">
+      <c r="D344" s="87" t="s">
         <v>2428</v>
       </c>
     </row>
@@ -56927,18 +58396,18 @@
       </c>
     </row>
     <row r="346" spans="2:6">
-      <c r="D346" s="88" t="s">
+      <c r="D346" s="87" t="s">
         <v>2430</v>
       </c>
     </row>
     <row r="347" spans="2:6">
-      <c r="E347" s="89" t="s">
+      <c r="E347" s="88" t="s">
         <v>2431</v>
       </c>
     </row>
     <row r="348" spans="2:6">
-      <c r="E348" s="89"/>
-      <c r="F348" s="88" t="s">
+      <c r="E348" s="88"/>
+      <c r="F348" s="87" t="s">
         <v>2449</v>
       </c>
     </row>
@@ -57093,7 +58562,7 @@
       </c>
     </row>
     <row r="386" spans="1:4">
-      <c r="D386" s="88" t="s">
+      <c r="D386" s="87" t="s">
         <v>2459</v>
       </c>
     </row>
@@ -57210,12 +58679,12 @@
       </c>
     </row>
     <row r="415" spans="2:7">
-      <c r="C415" s="100" t="s">
+      <c r="C415" s="98" t="s">
         <v>2484</v>
       </c>
     </row>
     <row r="416" spans="2:7">
-      <c r="C416" s="100" t="s">
+      <c r="C416" s="98" t="s">
         <v>2485</v>
       </c>
     </row>
@@ -57235,7 +58704,7 @@
       </c>
     </row>
     <row r="423" spans="1:5">
-      <c r="C423" s="90" t="s">
+      <c r="C423" s="89" t="s">
         <v>2489</v>
       </c>
     </row>
@@ -57260,7 +58729,7 @@
       </c>
     </row>
     <row r="430" spans="1:5">
-      <c r="C430" s="90" t="s">
+      <c r="C430" s="89" t="s">
         <v>2493</v>
       </c>
     </row>
@@ -57340,17 +58809,17 @@
       </c>
     </row>
     <row r="452" spans="2:4">
-      <c r="C452" s="90" t="s">
+      <c r="C452" s="89" t="s">
         <v>2508</v>
       </c>
     </row>
     <row r="453" spans="2:4">
-      <c r="C453" s="90" t="s">
+      <c r="C453" s="89" t="s">
         <v>2509</v>
       </c>
     </row>
     <row r="454" spans="2:4">
-      <c r="C454" s="90" t="s">
+      <c r="C454" s="89" t="s">
         <v>2510</v>
       </c>
     </row>
@@ -57444,7 +58913,7 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="103" t="s">
+      <c r="B7" s="101" t="s">
         <v>3588</v>
       </c>
     </row>
@@ -57489,7 +58958,7 @@
       <c r="B13" t="s">
         <v>3569</v>
       </c>
-      <c r="J13" s="104" t="s">
+      <c r="J13" s="102" t="s">
         <v>393</v>
       </c>
     </row>
@@ -57677,13 +59146,13 @@
       </c>
     </row>
     <row r="56" spans="2:11">
-      <c r="B56" s="105" t="s">
+      <c r="B56" s="103" t="s">
         <v>910</v>
       </c>
       <c r="C56" s="26"/>
       <c r="D56" s="26"/>
       <c r="E56" s="27"/>
-      <c r="F56" s="105" t="s">
+      <c r="F56" s="103" t="s">
         <v>3605</v>
       </c>
       <c r="G56" s="26"/>
@@ -57693,20 +59162,20 @@
       <c r="K56" s="27"/>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" s="106" t="s">
+      <c r="B57" s="104" t="s">
         <v>393</v>
       </c>
-      <c r="C57" s="107"/>
-      <c r="D57" s="107"/>
-      <c r="E57" s="108"/>
-      <c r="F57" s="106" t="s">
+      <c r="C57" s="105"/>
+      <c r="D57" s="105"/>
+      <c r="E57" s="106"/>
+      <c r="F57" s="104" t="s">
         <v>3606</v>
       </c>
-      <c r="G57" s="107"/>
-      <c r="H57" s="107"/>
-      <c r="I57" s="107"/>
-      <c r="J57" s="107"/>
-      <c r="K57" s="108"/>
+      <c r="G57" s="105"/>
+      <c r="H57" s="105"/>
+      <c r="I57" s="105"/>
+      <c r="J57" s="105"/>
+      <c r="K57" s="106"/>
     </row>
     <row r="58" spans="2:11">
       <c r="B58" s="49" t="s">
@@ -57725,20 +59194,20 @@
       <c r="K58" s="50"/>
     </row>
     <row r="59" spans="2:11">
-      <c r="B59" s="106" t="s">
+      <c r="B59" s="104" t="s">
         <v>378</v>
       </c>
-      <c r="C59" s="107"/>
-      <c r="D59" s="107"/>
-      <c r="E59" s="108"/>
-      <c r="F59" s="106" t="s">
+      <c r="C59" s="105"/>
+      <c r="D59" s="105"/>
+      <c r="E59" s="106"/>
+      <c r="F59" s="104" t="s">
         <v>3608</v>
       </c>
-      <c r="G59" s="107"/>
-      <c r="H59" s="107"/>
-      <c r="I59" s="107"/>
-      <c r="J59" s="107"/>
-      <c r="K59" s="108"/>
+      <c r="G59" s="105"/>
+      <c r="H59" s="105"/>
+      <c r="I59" s="105"/>
+      <c r="J59" s="105"/>
+      <c r="K59" s="106"/>
     </row>
     <row r="60" spans="2:11">
       <c r="B60" s="49" t="s">
@@ -57757,20 +59226,20 @@
       <c r="K60" s="50"/>
     </row>
     <row r="61" spans="2:11">
-      <c r="B61" s="106" t="s">
+      <c r="B61" s="104" t="s">
         <v>3610</v>
       </c>
-      <c r="C61" s="107"/>
-      <c r="D61" s="107"/>
-      <c r="E61" s="108"/>
-      <c r="F61" s="106" t="s">
+      <c r="C61" s="105"/>
+      <c r="D61" s="105"/>
+      <c r="E61" s="106"/>
+      <c r="F61" s="104" t="s">
         <v>3611</v>
       </c>
-      <c r="G61" s="107"/>
-      <c r="H61" s="107"/>
-      <c r="I61" s="107"/>
-      <c r="J61" s="107"/>
-      <c r="K61" s="108"/>
+      <c r="G61" s="105"/>
+      <c r="H61" s="105"/>
+      <c r="I61" s="105"/>
+      <c r="J61" s="105"/>
+      <c r="K61" s="106"/>
     </row>
     <row r="62" spans="2:11">
       <c r="B62" s="49" t="s">
@@ -57789,20 +59258,20 @@
       <c r="K62" s="50"/>
     </row>
     <row r="63" spans="2:11">
-      <c r="B63" s="106" t="s">
+      <c r="B63" s="104" t="s">
         <v>3614</v>
       </c>
-      <c r="C63" s="107"/>
-      <c r="D63" s="107"/>
-      <c r="E63" s="108"/>
-      <c r="F63" s="106" t="s">
+      <c r="C63" s="105"/>
+      <c r="D63" s="105"/>
+      <c r="E63" s="106"/>
+      <c r="F63" s="104" t="s">
         <v>3615</v>
       </c>
-      <c r="G63" s="107"/>
-      <c r="H63" s="107"/>
-      <c r="I63" s="107"/>
-      <c r="J63" s="107"/>
-      <c r="K63" s="108"/>
+      <c r="G63" s="105"/>
+      <c r="H63" s="105"/>
+      <c r="I63" s="105"/>
+      <c r="J63" s="105"/>
+      <c r="K63" s="106"/>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="5" t="s">
@@ -58492,7 +59961,7 @@
       <c r="B51" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="D51" s="95" t="s">
+      <c r="D51" s="93" t="s">
         <v>2688</v>
       </c>
     </row>
@@ -58524,7 +59993,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="B56" s="18"/>
-      <c r="D56" s="96" t="s">
+      <c r="D56" s="94" t="s">
         <v>2689</v>
       </c>
     </row>
@@ -58801,7 +60270,7 @@
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="93" t="s">
+      <c r="A102" s="91" t="s">
         <v>2574</v>
       </c>
     </row>
@@ -58864,7 +60333,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="5"/>
-      <c r="B121" s="102" t="s">
+      <c r="B121" s="100" t="s">
         <v>3556</v>
       </c>
     </row>
@@ -59269,7 +60738,7 @@
       </c>
     </row>
     <row r="223" spans="1:2">
-      <c r="B223" s="94" t="s">
+      <c r="B223" s="92" t="s">
         <v>2668</v>
       </c>
     </row>
@@ -59279,7 +60748,7 @@
       </c>
     </row>
     <row r="226" spans="1:2">
-      <c r="B226" s="94" t="s">
+      <c r="B226" s="92" t="s">
         <v>2669</v>
       </c>
     </row>
@@ -59289,7 +60758,7 @@
       </c>
     </row>
     <row r="229" spans="1:2">
-      <c r="B229" s="94" t="s">
+      <c r="B229" s="92" t="s">
         <v>2672</v>
       </c>
     </row>
@@ -59299,7 +60768,7 @@
       </c>
     </row>
     <row r="232" spans="1:2">
-      <c r="B232" s="94" t="s">
+      <c r="B232" s="92" t="s">
         <v>2674</v>
       </c>
     </row>
@@ -60187,12 +61656,12 @@
       </c>
     </row>
     <row r="439" spans="1:2">
-      <c r="B439" s="112" t="s">
+      <c r="B439" s="110" t="s">
         <v>3936</v>
       </c>
     </row>
     <row r="440" spans="1:2">
-      <c r="B440" s="112"/>
+      <c r="B440" s="110"/>
     </row>
     <row r="441" spans="1:2">
       <c r="B441" t="s">
@@ -60699,17 +62168,17 @@
       </c>
     </row>
     <row r="116" spans="2:5">
-      <c r="E116" s="109" t="s">
+      <c r="E116" s="107" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="117" spans="2:5">
-      <c r="E117" s="109" t="s">
+      <c r="E117" s="107" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="118" spans="2:5">
-      <c r="E118" s="109" t="s">
+      <c r="E118" s="107" t="s">
         <v>128</v>
       </c>
     </row>
@@ -60719,7 +62188,7 @@
       </c>
     </row>
     <row r="120" spans="2:5">
-      <c r="E120" s="109" t="s">
+      <c r="E120" s="107" t="s">
         <v>130</v>
       </c>
     </row>
@@ -61057,7 +62526,7 @@
       </c>
     </row>
     <row r="207" spans="3:4">
-      <c r="D207" s="109" t="s">
+      <c r="D207" s="107" t="s">
         <v>138</v>
       </c>
     </row>
@@ -62448,18 +63917,18 @@
       <c r="H467" s="27"/>
     </row>
     <row r="468" spans="2:8">
-      <c r="C468" s="106" t="s">
+      <c r="C468" s="104" t="s">
         <v>3757</v>
       </c>
-      <c r="D468" s="108"/>
-      <c r="E468" s="106">
+      <c r="D468" s="106"/>
+      <c r="E468" s="104">
         <v>5432</v>
       </c>
-      <c r="F468" s="108"/>
-      <c r="G468" s="106" t="s">
+      <c r="F468" s="106"/>
+      <c r="G468" s="104" t="s">
         <v>3758</v>
       </c>
-      <c r="H468" s="108"/>
+      <c r="H468" s="106"/>
     </row>
     <row r="469" spans="2:8">
       <c r="C469" s="28" t="s">
@@ -62476,18 +63945,18 @@
       <c r="H469" s="30"/>
     </row>
     <row r="470" spans="2:8">
-      <c r="C470" s="106" t="s">
+      <c r="C470" s="104" t="s">
         <v>3760</v>
       </c>
-      <c r="D470" s="108"/>
-      <c r="E470" s="106">
+      <c r="D470" s="106"/>
+      <c r="E470" s="104">
         <v>8000</v>
       </c>
-      <c r="F470" s="108"/>
-      <c r="G470" s="106" t="s">
+      <c r="F470" s="106"/>
+      <c r="G470" s="104" t="s">
         <v>3761</v>
       </c>
-      <c r="H470" s="108"/>
+      <c r="H470" s="106"/>
     </row>
     <row r="472" spans="2:8">
       <c r="C472" t="s">
@@ -62627,16 +64096,16 @@
     </row>
     <row r="502" spans="1:9">
       <c r="A502" s="5"/>
-      <c r="D502" s="111" t="s">
+      <c r="D502" s="109" t="s">
         <v>3893</v>
       </c>
-      <c r="E502" s="111" t="s">
+      <c r="E502" s="109" t="s">
         <v>3894</v>
       </c>
-      <c r="F502" s="111" t="s">
+      <c r="F502" s="109" t="s">
         <v>3895</v>
       </c>
-      <c r="G502" s="111" t="s">
+      <c r="G502" s="109" t="s">
         <v>3896</v>
       </c>
     </row>
@@ -62690,18 +64159,18 @@
     </row>
     <row r="507" spans="1:9">
       <c r="A507" s="5"/>
-      <c r="B507" s="106" t="s">
+      <c r="B507" s="104" t="s">
         <v>3901</v>
       </c>
-      <c r="C507" s="107"/>
-      <c r="D507" s="108"/>
-      <c r="E507" s="106" t="s">
+      <c r="C507" s="105"/>
+      <c r="D507" s="106"/>
+      <c r="E507" s="104" t="s">
         <v>3902</v>
       </c>
-      <c r="F507" s="107"/>
-      <c r="G507" s="107"/>
-      <c r="H507" s="107"/>
-      <c r="I507" s="108"/>
+      <c r="F507" s="105"/>
+      <c r="G507" s="105"/>
+      <c r="H507" s="105"/>
+      <c r="I507" s="106"/>
     </row>
     <row r="508" spans="1:9">
       <c r="A508" s="5"/>
@@ -62720,18 +64189,18 @@
     </row>
     <row r="509" spans="1:9">
       <c r="A509" s="5"/>
-      <c r="B509" s="106" t="s">
+      <c r="B509" s="104" t="s">
         <v>3905</v>
       </c>
-      <c r="C509" s="107"/>
-      <c r="D509" s="108"/>
-      <c r="E509" s="106" t="s">
+      <c r="C509" s="105"/>
+      <c r="D509" s="106"/>
+      <c r="E509" s="104" t="s">
         <v>3906</v>
       </c>
-      <c r="F509" s="107"/>
-      <c r="G509" s="107"/>
-      <c r="H509" s="107"/>
-      <c r="I509" s="108"/>
+      <c r="F509" s="105"/>
+      <c r="G509" s="105"/>
+      <c r="H509" s="105"/>
+      <c r="I509" s="106"/>
     </row>
     <row r="510" spans="1:9">
       <c r="A510" s="5"/>
@@ -62793,12 +64262,12 @@
       </c>
     </row>
     <row r="520" spans="1:10">
-      <c r="B520" s="110" t="s">
+      <c r="B520" s="108" t="s">
         <v>3772</v>
       </c>
     </row>
     <row r="521" spans="1:10">
-      <c r="B521" s="110"/>
+      <c r="B521" s="108"/>
     </row>
     <row r="522" spans="1:10">
       <c r="B522" s="5" t="s">
@@ -62811,11 +64280,11 @@
       </c>
     </row>
     <row r="524" spans="1:10">
-      <c r="B524" s="111" t="s">
+      <c r="B524" s="109" t="s">
         <v>3773</v>
       </c>
       <c r="C524" s="8"/>
-      <c r="D524" s="111" t="s">
+      <c r="D524" s="109" t="s">
         <v>3781</v>
       </c>
       <c r="F524" s="47" t="s">
@@ -62833,7 +64302,7 @@
       <c r="D525" s="20">
         <v>8000</v>
       </c>
-      <c r="F525" s="85" t="s">
+      <c r="F525" s="84" t="s">
         <v>3779</v>
       </c>
       <c r="G525" s="50"/>
@@ -63070,18 +64539,18 @@
       <c r="K579" s="27"/>
     </row>
     <row r="580" spans="3:11">
-      <c r="D580" s="106" t="s">
+      <c r="D580" s="104" t="s">
         <v>3825</v>
       </c>
-      <c r="E580" s="107"/>
-      <c r="F580" s="108"/>
-      <c r="G580" s="106" t="s">
+      <c r="E580" s="105"/>
+      <c r="F580" s="106"/>
+      <c r="G580" s="104" t="s">
         <v>3826</v>
       </c>
-      <c r="H580" s="107"/>
-      <c r="I580" s="107"/>
-      <c r="J580" s="107"/>
-      <c r="K580" s="108"/>
+      <c r="H580" s="105"/>
+      <c r="I580" s="105"/>
+      <c r="J580" s="105"/>
+      <c r="K580" s="106"/>
     </row>
     <row r="581" spans="3:11">
       <c r="D581" s="49" t="s">
@@ -63098,18 +64567,18 @@
       <c r="K581" s="50"/>
     </row>
     <row r="582" spans="3:11">
-      <c r="D582" s="106" t="s">
+      <c r="D582" s="104" t="s">
         <v>3829</v>
       </c>
-      <c r="E582" s="107"/>
-      <c r="F582" s="108"/>
-      <c r="G582" s="106" t="s">
+      <c r="E582" s="105"/>
+      <c r="F582" s="106"/>
+      <c r="G582" s="104" t="s">
         <v>3830</v>
       </c>
-      <c r="H582" s="107"/>
-      <c r="I582" s="107"/>
-      <c r="J582" s="107"/>
-      <c r="K582" s="108"/>
+      <c r="H582" s="105"/>
+      <c r="I582" s="105"/>
+      <c r="J582" s="105"/>
+      <c r="K582" s="106"/>
     </row>
     <row r="584" spans="3:11">
       <c r="C584" s="5" t="s">
@@ -63127,7 +64596,7 @@
       </c>
     </row>
     <row r="587" spans="3:11">
-      <c r="D587" s="110" t="s">
+      <c r="D587" s="108" t="s">
         <v>3834</v>
       </c>
     </row>
@@ -63167,7 +64636,7 @@
       <c r="G593" s="30"/>
     </row>
     <row r="595" spans="1:7">
-      <c r="D595" s="110" t="s">
+      <c r="D595" s="108" t="s">
         <v>3837</v>
       </c>
     </row>
@@ -63397,22 +64866,22 @@
       <c r="J650" s="27"/>
     </row>
     <row r="651" spans="1:10">
-      <c r="C651" s="106" t="s">
+      <c r="C651" s="104" t="s">
         <v>3664</v>
       </c>
-      <c r="D651" s="108"/>
-      <c r="E651" s="106" t="s">
+      <c r="D651" s="106"/>
+      <c r="E651" s="104" t="s">
         <v>3876</v>
       </c>
-      <c r="F651" s="108"/>
-      <c r="G651" s="106" t="s">
+      <c r="F651" s="106"/>
+      <c r="G651" s="104" t="s">
         <v>3876</v>
       </c>
-      <c r="H651" s="108"/>
-      <c r="I651" s="106" t="s">
+      <c r="H651" s="106"/>
+      <c r="I651" s="104" t="s">
         <v>3877</v>
       </c>
-      <c r="J651" s="108"/>
+      <c r="J651" s="106"/>
     </row>
     <row r="652" spans="1:10">
       <c r="C652" s="49" t="s">
@@ -63433,22 +64902,22 @@
       <c r="J652" s="50"/>
     </row>
     <row r="653" spans="1:10">
-      <c r="C653" s="106" t="s">
+      <c r="C653" s="104" t="s">
         <v>3879</v>
       </c>
-      <c r="D653" s="108"/>
-      <c r="E653" s="106" t="s">
+      <c r="D653" s="106"/>
+      <c r="E653" s="104" t="s">
         <v>3876</v>
       </c>
-      <c r="F653" s="108"/>
-      <c r="G653" s="106" t="s">
+      <c r="F653" s="106"/>
+      <c r="G653" s="104" t="s">
         <v>3876</v>
       </c>
-      <c r="H653" s="108"/>
-      <c r="I653" s="106" t="s">
+      <c r="H653" s="106"/>
+      <c r="I653" s="104" t="s">
         <v>3880</v>
       </c>
-      <c r="J653" s="108"/>
+      <c r="J653" s="106"/>
     </row>
     <row r="656" spans="1:10">
       <c r="A656" s="5" t="s">
@@ -64388,7 +65857,7 @@
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="B141" s="91" t="s">
+      <c r="B141" s="90" t="s">
         <v>2525</v>
       </c>
     </row>
@@ -64713,7 +66182,7 @@
     <row r="207" spans="1:5">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
-      <c r="C207" s="101" t="s">
+      <c r="C207" s="99" t="s">
         <v>3549</v>
       </c>
     </row>
@@ -67282,17 +68751,17 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="B23" s="109" t="s">
+      <c r="B23" s="107" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="B24" s="109" t="s">
+      <c r="B24" s="107" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="B25" s="109" t="s">
+      <c r="B25" s="107" t="s">
         <v>680</v>
       </c>
     </row>
@@ -70204,8 +71673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q771"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A292" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C301" sqref="C301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -70389,7 +71858,7 @@
       <c r="C38" t="s">
         <v>1108</v>
       </c>
-      <c r="I38" s="92" t="s">
+      <c r="I38" s="117" t="s">
         <v>1120</v>
       </c>
     </row>
@@ -70405,7 +71874,7 @@
       <c r="D40" t="s">
         <v>1110</v>
       </c>
-      <c r="I40" s="82" t="s">
+      <c r="I40" s="117" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -70413,7 +71882,7 @@
       <c r="D41" t="s">
         <v>1111</v>
       </c>
-      <c r="I41" s="82" t="s">
+      <c r="I41" s="117" t="s">
         <v>1123</v>
       </c>
     </row>
@@ -70421,7 +71890,7 @@
       <c r="D42" t="s">
         <v>1112</v>
       </c>
-      <c r="I42" s="82" t="s">
+      <c r="I42" s="117" t="s">
         <v>1124</v>
       </c>
     </row>
@@ -70429,7 +71898,7 @@
       <c r="D43" t="s">
         <v>1113</v>
       </c>
-      <c r="I43" s="82" t="s">
+      <c r="I43" s="117" t="s">
         <v>1125</v>
       </c>
     </row>
@@ -70441,6 +71910,9 @@
     <row r="45" spans="1:9">
       <c r="B45" t="s">
         <v>711</v>
+      </c>
+      <c r="I45" s="117" t="s">
+        <v>4145</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -72433,7 +73905,7 @@
       </c>
     </row>
     <row r="461" spans="1:9">
-      <c r="B461" s="84" t="s">
+      <c r="B461" s="83" t="s">
         <v>1977</v>
       </c>
     </row>
@@ -72965,7 +74437,7 @@
       <c r="B563" t="s">
         <v>450</v>
       </c>
-      <c r="I563" s="86" t="s">
+      <c r="I563" s="85" t="s">
         <v>2058</v>
       </c>
     </row>
@@ -73097,7 +74569,7 @@
       </c>
     </row>
     <row r="583" spans="1:8">
-      <c r="B583" s="83" t="s">
+      <c r="B583" s="82" t="s">
         <v>1874</v>
       </c>
     </row>
@@ -74004,7 +75476,7 @@
       <c r="M744" s="50"/>
     </row>
     <row r="745" spans="2:13">
-      <c r="B745" s="85" t="s">
+      <c r="B745" s="84" t="s">
         <v>2008</v>
       </c>
       <c r="C745" s="8"/>
@@ -75142,7 +76614,7 @@
       </c>
     </row>
     <row r="210" spans="4:10">
-      <c r="E210" s="109" t="s">
+      <c r="E210" s="107" t="s">
         <v>1641</v>
       </c>
     </row>

--- a/Django 01.03.25.xlsx
+++ b/Django 01.03.25.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9804" tabRatio="858" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9804" tabRatio="858" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="Exam prep" sheetId="13" r:id="rId13"/>
     <sheet name="Git" sheetId="11" r:id="rId14"/>
     <sheet name="Info" sheetId="15" r:id="rId15"/>
+    <sheet name="ORM" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5994" uniqueCount="4414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6059" uniqueCount="4467">
   <si>
     <t>HTTP</t>
   </si>
@@ -50248,18 +50249,1465 @@
   </si>
   <si>
     <t># returns True or False</t>
+  </si>
+  <si>
+    <t>ORM</t>
+  </si>
+  <si>
+    <t>Creating an object in child class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return f"{self.name} by {self.author.name}"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Author</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(models.Model):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = models.CharField(max_length=100)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    def </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>__str__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(self):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Book</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(models.Model):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> models.CharField(max_length=200)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>author</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = models.ForeignKey(Author, on_delete=models.CASCADE)</t>
+    </r>
+  </si>
+  <si>
+    <t># queries</t>
+  </si>
+  <si>
+    <t>from myapp.models import Author, Book</t>
+  </si>
+  <si>
+    <t># Option 1: Create a new author</t>
+  </si>
+  <si>
+    <t># OR get an existing author</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>author</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Author</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>objects</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>create</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>="George Orwell")</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>author</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Author</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.objects.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>="George Orwell")</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Create or get an Author</t>
+  </si>
+  <si>
+    <t>2. Create a Book linked to that Author</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>on_delete=models.CASCADE means: if the author is deleted, the related books will be deleted too</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>author</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in Book must be an Author instance, not just a string</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Book</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.objects.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>create</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">="Animal Farm", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>author_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=3)</t>
+    </r>
+  </si>
+  <si>
+    <t>How it works</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>author</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is the ForeignKey field (expecting an Author instance).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Django automatically creates a hidden field </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>author_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, which holds the integer PK</t>
+    </r>
+  </si>
+  <si>
+    <t>Using author_id=3 is a shortcut that tells Django: “Use the Author with pk=3.</t>
+  </si>
+  <si>
+    <t>3. Example: Using pk Instead of Full Object</t>
+  </si>
+  <si>
+    <t>Important</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This creates the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Book</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the database and returns the instance — but you </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>don’t store it</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, so </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>you can’t reference it later in your code</t>
+    </r>
+  </si>
+  <si>
+    <t>This also creates the Book, but stores the instance in the variable book, so you can:</t>
+  </si>
+  <si>
+    <r>
+      <t>print(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>book</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.name)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>book</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.id)</t>
+    </r>
+  </si>
+  <si>
+    <t>Safe way to create a Book (with check)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    print("Author with ID 3 does not exist.")</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>author</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Author</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.objects.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(pk=3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>book</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Book</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.objects.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>create</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">="Animal Farm", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>author_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Book</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.objects.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>create</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">="Animal Farm", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>author_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>book</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Book</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>objects</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>create</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">="1984", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>author</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>author</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>book</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Book</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.objects.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA47A20"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>create</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">="Animal Farm", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>author</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>author</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    print("Book created:", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>book</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA626A4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>try</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA626A4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>except</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ObjectDoesNotExist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">from django.core.exceptions import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ObjectDoesNotExist</t>
+    </r>
+  </si>
+  <si>
+    <t>Running file</t>
+  </si>
+  <si>
+    <t>project_root/</t>
+  </si>
+  <si>
+    <t>├── scripts/</t>
+  </si>
+  <si>
+    <t>│   └── create_book.py</t>
+  </si>
+  <si>
+    <r>
+      <t>├──</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> myapp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+  </si>
+  <si>
+    <t>import django</t>
+  </si>
+  <si>
+    <t>import os</t>
+  </si>
+  <si>
+    <t>os.environ.setdefault("DJANGO_SETTINGS_MODULE", "yourproject.settings")</t>
+  </si>
+  <si>
+    <t>django.setup()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>myapp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.models import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Author</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Book</t>
+    </r>
+  </si>
+  <si>
+    <t>#  create_book.py</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="89">
+  <fonts count="90">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -51144,74 +52592,74 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="46" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="46" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="21" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="21" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="46" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="46" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -51221,73 +52669,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="21" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="21" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -51296,11 +52748,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFA47A20"/>
+      <color rgb="FFA626A4"/>
+      <color rgb="FFFF33CC"/>
       <color rgb="FF7D7DFF"/>
       <color rgb="FF179A77"/>
-      <color rgb="FFA47A20"/>
-      <color rgb="FFFF33CC"/>
-      <color rgb="FFA626A4"/>
       <color rgb="FFDA7BB9"/>
       <color rgb="FFCC9900"/>
       <color rgb="FFFF7F50"/>
@@ -51692,7 +53144,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -51712,7 +53164,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -51799,7 +53251,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -51819,7 +53271,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -52009,6 +53461,58 @@
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>399393</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>173421</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>36786</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1618593" y="6059214"/>
+          <a:ext cx="2496207" cy="599089"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -52319,7 +53823,7 @@
   <dimension ref="A3:H63"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -52385,7 +53889,9 @@
       <c r="D6" s="42" t="s">
         <v>3563</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="42" t="s">
+        <v>4414</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -52955,6 +54461,7 @@
     <hyperlink ref="C5" location="'Exam prep'!A1" display="Exam prep"/>
     <hyperlink ref="G4" location="CBV!A1" display="Class Based Views"/>
     <hyperlink ref="D6" location="Info!A1" display="Info"/>
+    <hyperlink ref="E6" location="ORM!A1" display="ORM"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -53855,8 +55362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L912"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A903" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B916" sqref="B916"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -65062,6 +66569,647 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I96"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>4415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="25" t="s">
+        <v>625</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="49"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="50"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="49" t="s">
+        <v>4417</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="50"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="49" t="s">
+        <v>4418</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="50"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="49"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="50"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="49" t="s">
+        <v>4419</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="50"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="49" t="s">
+        <v>624</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="50"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="49"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="50"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" s="49" t="s">
+        <v>4420</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="50"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" s="49" t="s">
+        <v>4421</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="50"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" s="49" t="s">
+        <v>4422</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="50"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="49"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="50"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="49" t="s">
+        <v>4419</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="50"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="28" t="s">
+        <v>4416</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" t="s">
+        <v>4423</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="3" t="s">
+        <v>4429</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="C23" s="25" t="s">
+        <v>4424</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="C24" s="49"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="50"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="C25" s="49" t="s">
+        <v>4425</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="50"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="C26" s="126" t="s">
+        <v>4427</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="50"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="C27" s="49"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="50"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="C28" s="49" t="s">
+        <v>4426</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="50"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="C29" s="28" t="s">
+        <v>4428</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="30"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="3" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="C34" s="127" t="s">
+        <v>4450</v>
+      </c>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="27"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="C35" s="28"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="30"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="3" t="s">
+        <v>4431</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="C38" s="125" t="s">
+        <v>4433</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="C39" t="s">
+        <v>4432</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="3" t="s">
+        <v>4439</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="C44" s="127" t="s">
+        <v>4449</v>
+      </c>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="27"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="C45" s="28"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="30"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="C47" s="3" t="s">
+        <v>4435</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="D48" s="125" t="s">
+        <v>4436</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="D49" t="s">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="D50" t="s">
+        <v>4438</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="C53" s="3" t="s">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="D54" s="128" t="s">
+        <v>4434</v>
+      </c>
+      <c r="E54" s="105"/>
+      <c r="F54" s="105"/>
+      <c r="G54" s="105"/>
+      <c r="H54" s="105"/>
+      <c r="I54" s="106"/>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="E55" t="s">
+        <v>4441</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="D57" s="128" t="s">
+        <v>4448</v>
+      </c>
+      <c r="E57" s="105"/>
+      <c r="F57" s="105"/>
+      <c r="G57" s="105"/>
+      <c r="H57" s="105"/>
+      <c r="I57" s="106"/>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="E58" t="s">
+        <v>4442</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="F59" t="s">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="F60" t="s">
+        <v>4443</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="3" t="s">
+        <v>4445</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="C64" t="s">
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="C65" t="s">
+        <v>4424</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="C67" s="125" t="s">
+        <v>4453</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="C68" t="s">
+        <v>4447</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="C69" t="s">
+        <v>4451</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="C70" t="s">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="C71" s="125" t="s">
+        <v>4454</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="C72" t="s">
+        <v>4446</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="3" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="B76" t="s">
+        <v>4457</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="B77" t="s">
+        <v>4460</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="B78" t="s">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="B79" t="s">
+        <v>4459</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9">
+      <c r="B81" s="103" t="s">
+        <v>4466</v>
+      </c>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="27"/>
+    </row>
+    <row r="82" spans="2:9">
+      <c r="B82" s="49" t="s">
+        <v>4461</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="50"/>
+    </row>
+    <row r="83" spans="2:9">
+      <c r="B83" s="49" t="s">
+        <v>4462</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="50"/>
+    </row>
+    <row r="84" spans="2:9">
+      <c r="B84" s="49"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="50"/>
+    </row>
+    <row r="85" spans="2:9">
+      <c r="B85" s="49" t="s">
+        <v>4463</v>
+      </c>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="50"/>
+    </row>
+    <row r="86" spans="2:9">
+      <c r="B86" s="49" t="s">
+        <v>4464</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="50"/>
+    </row>
+    <row r="87" spans="2:9">
+      <c r="B87" s="49"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="50"/>
+    </row>
+    <row r="88" spans="2:9">
+      <c r="B88" s="49" t="s">
+        <v>4455</v>
+      </c>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="50"/>
+    </row>
+    <row r="89" spans="2:9">
+      <c r="B89" s="49" t="s">
+        <v>4465</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="50"/>
+    </row>
+    <row r="90" spans="2:9">
+      <c r="B90" s="49"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="50"/>
+    </row>
+    <row r="91" spans="2:9">
+      <c r="B91" s="126" t="s">
+        <v>4453</v>
+      </c>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="50"/>
+    </row>
+    <row r="92" spans="2:9">
+      <c r="B92" s="49" t="s">
+        <v>4447</v>
+      </c>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="50"/>
+    </row>
+    <row r="93" spans="2:9">
+      <c r="B93" s="49" t="s">
+        <v>4451</v>
+      </c>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="50"/>
+    </row>
+    <row r="94" spans="2:9">
+      <c r="B94" s="49" t="s">
+        <v>4452</v>
+      </c>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="50"/>
+    </row>
+    <row r="95" spans="2:9">
+      <c r="B95" s="126" t="s">
+        <v>4454</v>
+      </c>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="50"/>
+    </row>
+    <row r="96" spans="2:9">
+      <c r="B96" s="28" t="s">
+        <v>4446</v>
+      </c>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="29"/>
+      <c r="I96" s="30"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F1" location="Home!A1" display="Home!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
